--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Успеваемость (подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>№</t>
   </si>
@@ -68,6 +70,42 @@
   </si>
   <si>
     <t>Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белолюбский Темир Константинович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горбунов Константин Андрееевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гураль Даниил Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зазорнов Данил Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зубов Максим Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качур Григорий Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Климов Дмитрий Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комаров Кирилл Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латышев Олег Вадимович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саар Семён Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смагин Леонид Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чмырь Егор Александрович</t>
   </si>
 </sst>
 </file>
@@ -130,7 +168,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,9 +179,18 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -674,7 +721,9 @@
       <c r="C1" s="3">
         <v>44942</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="4">
+        <v>44944</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -693,16 +742,18 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -721,16 +772,18 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -749,16 +802,18 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -777,16 +832,18 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -805,16 +862,18 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -833,16 +892,18 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -861,16 +922,18 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -889,16 +952,18 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -917,16 +982,18 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -945,16 +1012,18 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -973,16 +1042,18 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1001,16 +1072,18 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1029,16 +1102,18 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1059,13 +1134,13 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00ED0072-00AE-4A8F-8C4A-00BD00870027}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006F00F7-0097-4A91-9670-000800F6009E}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1082,7 +1157,7 @@
           <xm:sqref>C2:T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F8000A-001D-4AED-AD63-002200170092}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{009400E4-0058-4ACB-BDEC-00BD00B7006D}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1099,7 +1174,7 @@
           <xm:sqref>C2:T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A900E7-004B-4FFC-A0B6-008500BD007B}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00C800F9-0053-44BE-A93D-00EC002B00B6}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1128,7 +1203,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="2.8515625"/>
     <col bestFit="1" min="2" max="2" width="32.421875"/>
@@ -1142,7 +1217,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="2"/>
@@ -1163,10 +1238,10 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
@@ -1188,10 +1263,10 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1213,10 +1288,10 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
@@ -1238,13 +1313,13 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
       <c r="D5" s="2"/>
@@ -1265,10 +1340,10 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2"/>
@@ -1290,13 +1365,13 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>10</v>
       </c>
       <c r="D7" s="2"/>
@@ -1317,10 +1392,10 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2">
@@ -1344,10 +1419,10 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
@@ -1369,10 +1444,10 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2"/>
@@ -1394,10 +1469,10 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2"/>
@@ -1419,10 +1494,10 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2"/>
@@ -1444,10 +1519,10 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
@@ -1469,10 +1544,10 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
@@ -1496,7 +1571,805 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="2.8515625"/>
+    <col bestFit="1" min="2" max="2" width="34.140625"/>
+    <col min="3" max="17" style="1" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>44943</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44944</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007100E7-00CC-4528-904D-00C8006C0048}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:Q13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00460049-00BA-418C-881A-002600080072}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:Q13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D50018-004B-46B1-A338-00FF00820088}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:Q13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="2.8515625"/>
+    <col bestFit="1" min="2" max="2" width="34.140625"/>
+    <col min="3" max="18" style="1" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
@@ -721,10 +721,12 @@
       <c r="C1" s="3">
         <v>44942</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>44944</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="4">
+        <v>44949</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -751,10 +753,12 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -781,10 +785,12 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -811,10 +817,12 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -841,10 +849,12 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -871,10 +881,12 @@
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -901,10 +913,12 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -931,10 +945,12 @@
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -961,10 +977,12 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -991,10 +1009,12 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1021,10 +1041,12 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1051,10 +1073,12 @@
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1081,10 +1105,12 @@
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1111,10 +1137,12 @@
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1140,7 +1168,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006F00F7-0097-4A91-9670-000800F6009E}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00BF0033-007D-4364-A1EE-00E50017001C}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1157,7 +1185,7 @@
           <xm:sqref>C2:T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{009400E4-0058-4ACB-BDEC-00BD00B7006D}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F900E8-0045-49D9-AD60-002900CE00FD}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1174,7 +1202,7 @@
           <xm:sqref>C2:T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00C800F9-0053-44BE-A93D-00EC002B00B6}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00690066-002C-4BEA-97F4-007D007700CA}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1220,7 +1248,9 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1322,7 +1352,9 @@
       <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1346,7 +1378,9 @@
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1374,7 +1408,9 @@
       <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1425,8 +1461,12 @@
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1475,7 +1515,9 @@
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1600,7 +1642,7 @@
       <c r="C1" s="3">
         <v>44943</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>44944</v>
       </c>
       <c r="E1" s="2"/>
@@ -1629,7 +1671,7 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2"/>
@@ -1658,7 +1700,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2"/>
@@ -1687,7 +1729,7 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2"/>
@@ -1716,7 +1758,7 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
@@ -1745,7 +1787,7 @@
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
@@ -1774,7 +1816,7 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
@@ -1803,7 +1845,7 @@
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2"/>
@@ -1832,7 +1874,7 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
@@ -1861,7 +1903,7 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
@@ -1890,7 +1932,7 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2"/>
@@ -1919,7 +1961,7 @@
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="2"/>
@@ -1948,7 +1990,7 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="2"/>
@@ -1976,7 +2018,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007100E7-00CC-4528-904D-00C8006C0048}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00200029-00DD-4489-8AD9-0052006C003A}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1993,7 +2035,7 @@
           <xm:sqref>C2:Q13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00460049-00BA-418C-881A-002600080072}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00D4001E-0089-457B-97A6-004C004C0098}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2010,7 +2052,7 @@
           <xm:sqref>C2:Q13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D50018-004B-46B1-A338-00FF00820088}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005E0028-0065-4FD9-BACF-00C300780042}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_61BD44FA40B089E9C241200534F487BD4CBEDE65" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84BDC145-0B5A-4DF0-9E68-B4902C8A4789}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="30">
   <si>
     <t>№</t>
   </si>
@@ -24,120 +39,108 @@
     <t>Студент</t>
   </si>
   <si>
-    <t xml:space="preserve">Бабкина Олеся Олеговна</t>
+    <t>Бабкина Олеся Олеговна</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t xml:space="preserve">Головня Тимофей Денисович</t>
+    <t>Головня Тимофей Денисович</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Григорьева Татьяна Александровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Казаков Михаил Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калашников Игорь Юрьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калмаков Алексей Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карпенко Анна Сергеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лобанов Тимур Хамзатович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Назаров Ярослав Павлович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Овсянников Павел Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Потапова Мария</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шматков Михаил Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бадалян Карен</t>
+    <t>Григорьева Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Казаков Михаил Евгеньевич</t>
+  </si>
+  <si>
+    <t>Калашников Игорь Юрьевич</t>
+  </si>
+  <si>
+    <t>Калмаков Алексей Евгеньевич</t>
+  </si>
+  <si>
+    <t>Карпенко Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Лобанов Тимур Хамзатович</t>
+  </si>
+  <si>
+    <t>Назаров Ярослав Павлович</t>
+  </si>
+  <si>
+    <t>Овсянников Павел Алексеевич</t>
+  </si>
+  <si>
+    <t>Потапова Мария</t>
+  </si>
+  <si>
+    <t>Шматков Михаил Сергеевич</t>
+  </si>
+  <si>
+    <t>Бадалян Карен</t>
   </si>
   <si>
     <t>Base</t>
   </si>
   <si>
-    <t xml:space="preserve">Белолюбский Темир Константинович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горбунов Константин Андрееевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гураль Даниил Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зазорнов Данил Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зубов Максим Викторович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качур Григорий Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Климов Дмитрий Юрьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комаров Кирилл Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Латышев Олег Вадимович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Саар Семён Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смагин Леонид Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чмырь Егор Александрович</t>
+    <t>Белолюбский Темир Константинович</t>
+  </si>
+  <si>
+    <t>Горбунов Константин Андрееевич</t>
+  </si>
+  <si>
+    <t>Гураль Даниил Александрович</t>
+  </si>
+  <si>
+    <t>Зазорнов Данил Сергеевич</t>
+  </si>
+  <si>
+    <t>Зубов Максим Викторович</t>
+  </si>
+  <si>
+    <t>Качур Григорий Алексеевич</t>
+  </si>
+  <si>
+    <t>Климов Дмитрий Юрьевич</t>
+  </si>
+  <si>
+    <t>Комаров Кирилл Александрович</t>
+  </si>
+  <si>
+    <t>Латышев Олег Вадимович</t>
+  </si>
+  <si>
+    <t>Саар Семён Евгеньевич</t>
+  </si>
+  <si>
+    <t>Смагин Леонид Алексеевич</t>
+  </si>
+  <si>
+    <t>Чмырь Егор Александрович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -164,334 +167,113 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -694,24 +476,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="32.421875"/>
-    <col min="3" max="20" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1"/>
+    <col min="3" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,10 +508,12 @@
       <c r="D1" s="3">
         <v>44944</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>44949</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3">
+        <v>44952</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -743,11 +529,11 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:20">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -756,10 +542,12 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -775,11 +563,11 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:20">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -788,10 +576,12 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -807,11 +597,11 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -820,10 +610,12 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -839,11 +631,11 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:20">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -852,10 +644,12 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -871,11 +665,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -884,10 +678,12 @@
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -903,11 +699,11 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:20">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -916,10 +712,12 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -935,11 +733,11 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:20">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -948,10 +746,12 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -967,11 +767,11 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:20">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -980,10 +780,12 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -999,11 +801,11 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:20">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1012,10 +814,12 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1031,11 +835,11 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:20">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1044,10 +848,12 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1063,11 +869,11 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:20">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1076,10 +882,12 @@
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1095,11 +903,11 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:20">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1108,10 +916,12 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1127,11 +937,11 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:20">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1140,10 +950,12 @@
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1160,85 +972,42 @@
       <c r="T14" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00BF0033-007D-4364-A1EE-00E50017001C}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F900E8-0045-49D9-AD60-002900CE00FD}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00690066-002C-4BEA-97F4-007D007700CA}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T14</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:T14">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T14">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T14">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="32.421875"/>
-    <col min="3" max="19" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1267,11 +1036,11 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:19">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
@@ -1292,11 +1061,11 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:19">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1317,11 +1086,11 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
@@ -1342,11 +1111,11 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:19">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
@@ -1371,11 +1140,11 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2">
@@ -1398,11 +1167,11 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:19">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2">
@@ -1427,11 +1196,11 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:19">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2">
@@ -1454,11 +1223,11 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:19">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
@@ -1483,11 +1252,11 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:19">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2"/>
@@ -1508,11 +1277,11 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:19">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2">
@@ -1535,11 +1304,11 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:19">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2"/>
@@ -1560,11 +1329,11 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:19">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
@@ -1585,11 +1354,11 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
+    <row r="14" spans="1:19">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
@@ -1611,32 +1380,31 @@
       <c r="S14" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="34.140625"/>
-    <col min="3" max="17" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1"/>
+    <col min="3" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
@@ -1645,8 +1413,12 @@
       <c r="D1" s="3">
         <v>44944</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="3">
+        <v>44950</v>
+      </c>
+      <c r="F1" s="3">
+        <v>44952</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1658,14 +1430,14 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1674,8 +1446,12 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1687,14 +1463,14 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1703,8 +1479,12 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1716,14 +1496,14 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1732,8 +1512,12 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1745,14 +1529,14 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1761,8 +1545,12 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1774,14 +1562,14 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1790,8 +1578,12 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1803,14 +1595,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7">
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1819,8 +1611,12 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1832,14 +1628,14 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7">
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1848,8 +1644,12 @@
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1861,14 +1661,14 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1877,8 +1677,12 @@
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1890,14 +1694,14 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7">
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1906,8 +1710,12 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1919,14 +1727,14 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1935,8 +1743,12 @@
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1948,14 +1760,14 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7">
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1964,8 +1776,12 @@
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1977,14 +1793,14 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7">
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1993,8 +1809,12 @@
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2006,89 +1826,46 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00200029-00DD-4489-8AD9-0052006C003A}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:Q13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00D4001E-0089-457B-97A6-004C004C0098}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:Q13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005E0028-0065-4FD9-BACF-00C300780042}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:Q13</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:Q13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:Q13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:Q13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="34.140625"/>
-    <col min="3" max="18" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1"/>
+    <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2114,11 +1891,11 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:18">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2"/>
@@ -2138,11 +1915,11 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:18">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2"/>
@@ -2162,11 +1939,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2"/>
@@ -2186,11 +1963,11 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:18">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2"/>
@@ -2210,11 +1987,11 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2">
@@ -2236,11 +2013,11 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:18">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2"/>
@@ -2260,11 +2037,11 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:18">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2">
@@ -2286,11 +2063,11 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:18">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2"/>
@@ -2310,11 +2087,11 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:18">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2"/>
@@ -2334,15 +2111,15 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2360,14 +2137,16 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:18">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2384,11 +2163,11 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:18">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2"/>
@@ -2409,9 +2188,7 @@
       <c r="R13" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_61BD44FA40B089E9C241200534F487BD4CBEDE65" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84BDC145-0B5A-4DF0-9E68-B4902C8A4789}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_83B931820A3DE7C1E20D28A8DD749F9E3C70917E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -13,25 +13,12 @@
     <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
     <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -105,6 +92,9 @@
     <t>Качур Григорий Алексеевич</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Климов Дмитрий Юрьевич</t>
   </si>
   <si>
@@ -121,6 +111,9 @@
   </si>
   <si>
     <t>Чмырь Егор Александрович</t>
+  </si>
+  <si>
+    <t>Legacy</t>
   </si>
 </sst>
 </file>
@@ -484,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -514,8 +507,12 @@
       <c r="F1" s="3">
         <v>44952</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3">
+        <v>44956</v>
+      </c>
+      <c r="H1" s="3">
+        <v>44958</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -548,8 +545,12 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -582,8 +583,12 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -616,8 +621,12 @@
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -650,8 +659,12 @@
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -684,8 +697,12 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -718,8 +735,12 @@
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -752,8 +773,12 @@
       <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -786,8 +811,12 @@
       <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -820,8 +849,12 @@
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -854,8 +887,12 @@
       <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -888,8 +925,12 @@
       <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -922,8 +963,12 @@
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -956,8 +1001,12 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -996,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1122,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1148,9 +1197,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1206,7 +1257,9 @@
       <c r="C8" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1336,7 +1389,9 @@
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1390,7 +1445,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1419,8 +1474,12 @@
       <c r="F1" s="3">
         <v>44952</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3">
+        <v>44957</v>
+      </c>
+      <c r="H1" s="3">
+        <v>44958</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1452,8 +1511,12 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1485,8 +1548,12 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1518,8 +1585,12 @@
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1551,8 +1622,12 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1584,8 +1659,12 @@
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1606,10 +1685,10 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>5</v>
@@ -1617,8 +1696,12 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1636,22 +1719,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1669,7 +1756,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -1683,8 +1770,12 @@
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1702,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -1716,8 +1807,12 @@
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1735,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -1749,8 +1844,12 @@
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1768,7 +1867,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1782,8 +1881,12 @@
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1801,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -1815,8 +1918,12 @@
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1855,13 +1962,13 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1875,7 +1982,9 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1946,7 +2055,9 @@
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1995,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2020,8 +2131,12 @@
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2042,12 +2157,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2068,9 +2185,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2092,10 +2211,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2116,12 +2239,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2142,12 +2267,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2168,9 +2295,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_83B931820A3DE7C1E20D28A8DD749F9E3C70917E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_83B931820A3DE7C1E20D28A8DD749F9E3C70917E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B7B5FB-C0BF-4C4D-BB16-8E87B23C0B90}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,12 +13,25 @@
     <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
     <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -478,7 +491,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -513,7 +526,9 @@
       <c r="H1" s="3">
         <v>44958</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3">
+        <v>44963</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -551,7 +566,9 @@
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -589,7 +606,9 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -627,7 +646,9 @@
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -665,7 +686,9 @@
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -703,7 +726,9 @@
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -741,7 +766,9 @@
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -779,7 +806,9 @@
       <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -817,7 +846,9 @@
       <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -855,7 +886,9 @@
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -893,7 +926,9 @@
       <c r="H11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -931,7 +966,9 @@
       <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -969,7 +1006,9 @@
       <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1007,7 +1046,9 @@
       <c r="H14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1046,7 +1087,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1069,7 +1110,9 @@
       <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1173,7 +1216,9 @@
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1200,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1390,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1445,7 +1490,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_83B931820A3DE7C1E20D28A8DD749F9E3C70917E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B7B5FB-C0BF-4C4D-BB16-8E87B23C0B90}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
-    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId2"/>
-    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -39,91 +24,91 @@
     <t>Студент</t>
   </si>
   <si>
-    <t>Бабкина Олеся Олеговна</t>
+    <t xml:space="preserve">Бабкина Олеся Олеговна</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Головня Тимофей Денисович</t>
+    <t xml:space="preserve">Головня Тимофей Денисович</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Григорьева Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>Казаков Михаил Евгеньевич</t>
-  </si>
-  <si>
-    <t>Калашников Игорь Юрьевич</t>
-  </si>
-  <si>
-    <t>Калмаков Алексей Евгеньевич</t>
-  </si>
-  <si>
-    <t>Карпенко Анна Сергеевна</t>
-  </si>
-  <si>
-    <t>Лобанов Тимур Хамзатович</t>
-  </si>
-  <si>
-    <t>Назаров Ярослав Павлович</t>
-  </si>
-  <si>
-    <t>Овсянников Павел Алексеевич</t>
-  </si>
-  <si>
-    <t>Потапова Мария</t>
-  </si>
-  <si>
-    <t>Шматков Михаил Сергеевич</t>
-  </si>
-  <si>
-    <t>Бадалян Карен</t>
+    <t xml:space="preserve">Григорьева Татьяна Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казаков Михаил Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калашников Игорь Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калмаков Алексей Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпенко Анна Сергеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лобанов Тимур Хамзатович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Назаров Ярослав Павлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Овсянников Павел Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потапова Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шматков Михаил Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бадалян Карен</t>
   </si>
   <si>
     <t>Base</t>
   </si>
   <si>
-    <t>Белолюбский Темир Константинович</t>
-  </si>
-  <si>
-    <t>Горбунов Константин Андрееевич</t>
-  </si>
-  <si>
-    <t>Гураль Даниил Александрович</t>
-  </si>
-  <si>
-    <t>Зазорнов Данил Сергеевич</t>
-  </si>
-  <si>
-    <t>Зубов Максим Викторович</t>
-  </si>
-  <si>
-    <t>Качур Григорий Алексеевич</t>
+    <t xml:space="preserve">Белолюбский Темир Константинович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горбунов Константин Андрееевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гураль Даниил Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зазорнов Данил Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зубов Максим Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качур Григорий Алексеевич</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Климов Дмитрий Юрьевич</t>
-  </si>
-  <si>
-    <t>Комаров Кирилл Александрович</t>
-  </si>
-  <si>
-    <t>Латышев Олег Вадимович</t>
-  </si>
-  <si>
-    <t>Саар Семён Евгеньевич</t>
-  </si>
-  <si>
-    <t>Смагин Леонид Алексеевич</t>
-  </si>
-  <si>
-    <t>Чмырь Егор Александрович</t>
+    <t xml:space="preserve">Климов Дмитрий Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комаров Кирилл Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латышев Олег Вадимович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саар Семён Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смагин Леонид Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чмырь Егор Александрович</t>
   </si>
   <si>
     <t>Legacy</t>
@@ -132,12 +117,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,112 +159,331 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -482,26 +686,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1"/>
-    <col min="3" max="20" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="32.42578125"/>
+    <col min="3" max="20" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -541,7 +743,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -581,7 +783,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -621,7 +823,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -661,7 +863,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -701,7 +903,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -741,7 +943,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -781,7 +983,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -821,7 +1023,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -861,7 +1063,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -901,7 +1103,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -941,7 +1143,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -981,7 +1183,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1021,7 +1223,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1062,42 +1264,85 @@
       <c r="T14" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:T14">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T14">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00EB00D5-003A-41D8-8BF4-002E00DB0023}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{008E00D0-00AB-4746-AB8F-00C800710066}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00FB0019-00EF-4F74-86CD-00A8001C003F}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="34.140625"/>
+    <col min="3" max="19" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1373,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1153,7 +1398,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1178,7 +1423,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1203,7 +1448,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1234,7 +1479,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1263,7 +1508,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1292,7 +1537,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1321,7 +1566,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1350,7 +1595,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1375,7 +1620,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1402,7 +1647,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1427,7 +1672,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1454,7 +1699,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1480,27 +1725,28 @@
       <c r="S14" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1"/>
-    <col min="3" max="17" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="34.140625"/>
+    <col min="3" max="17" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1771,9 @@
       <c r="H1" s="3">
         <v>44958</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="6">
+        <v>44964</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1534,10 +1782,10 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1562,7 +1810,9 @@
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1571,10 +1821,10 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1599,7 +1849,9 @@
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1608,10 +1860,10 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1636,7 +1888,9 @@
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1645,10 +1899,10 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1673,7 +1927,9 @@
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1682,10 +1938,10 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1710,7 +1966,9 @@
       <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1719,10 +1977,10 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1747,7 +2005,9 @@
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1756,10 +2016,10 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1784,7 +2044,9 @@
       <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1793,10 +2055,10 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1821,7 +2083,9 @@
       <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1830,10 +2094,10 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1858,7 +2122,9 @@
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1867,10 +2133,10 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1895,7 +2161,9 @@
       <c r="H11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1904,10 +2172,10 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1932,7 +2200,9 @@
       <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1941,10 +2211,10 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1969,7 +2239,9 @@
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1978,46 +2250,89 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:Q13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:Q13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:Q13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002300E0-00C9-45A2-9D6C-0064007F00A1}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:Q13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{003D00E7-0025-4100-BB30-00E400220035}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:Q13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00440007-0090-4136-9E64-00E600F000D6}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:Q13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="35.7109375"/>
+    <col min="3" max="18" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2360,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2069,14 +2384,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2093,7 +2410,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2119,7 +2436,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2143,7 +2460,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2169,7 +2486,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2197,7 +2514,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2225,7 +2542,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2235,7 +2552,9 @@
       <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2251,7 +2570,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2262,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2279,7 +2598,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="15">
+    <row r="11" ht="15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2307,7 +2626,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2335,7 +2654,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2345,7 +2664,9 @@
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2362,7 +2683,9 @@
       <c r="R13" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A61D4F14-BA35-46AC-9F54-FAC74CDD1EA4}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -24,105 +39,105 @@
     <t>Студент</t>
   </si>
   <si>
-    <t xml:space="preserve">Бабкина Олеся Олеговна</t>
+    <t>Бабкина Олеся Олеговна</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t xml:space="preserve">Головня Тимофей Денисович</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Григорьева Татьяна Александровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Казаков Михаил Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калашников Игорь Юрьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калмаков Алексей Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карпенко Анна Сергеевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лобанов Тимур Хамзатович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Назаров Ярослав Павлович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Овсянников Павел Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Потапова Мария</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шматков Михаил Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бадалян Карен</t>
+    <t>Головня Тимофей Денисович</t>
+  </si>
+  <si>
+    <t>Григорьева Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Казаков Михаил Евгеньевич</t>
+  </si>
+  <si>
+    <t>Калашников Игорь Юрьевич</t>
+  </si>
+  <si>
+    <t>Калмаков Алексей Евгеньевич</t>
+  </si>
+  <si>
+    <t>Карпенко Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Лобанов Тимур Хамзатович</t>
+  </si>
+  <si>
+    <t>Назаров Ярослав Павлович</t>
+  </si>
+  <si>
+    <t>Овсянников Павел Алексеевич</t>
+  </si>
+  <si>
+    <t>Потапова Мария</t>
+  </si>
+  <si>
+    <t>Шматков Михаил Сергеевич</t>
+  </si>
+  <si>
+    <t>Бадалян Карен</t>
   </si>
   <si>
     <t>Base</t>
   </si>
   <si>
-    <t xml:space="preserve">Белолюбский Темир Константинович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горбунов Константин Андрееевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гураль Даниил Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зазорнов Данил Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зубов Максим Викторович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качур Григорий Алексеевич</t>
+    <t>Горбунов Константин Андрееевич</t>
+  </si>
+  <si>
+    <t>Гураль Даниил Александрович</t>
+  </si>
+  <si>
+    <t>Зазорнов Данил Сергеевич</t>
+  </si>
+  <si>
+    <t>Зубов Максим Викторович</t>
+  </si>
+  <si>
+    <t>Качур Григорий Алексеевич</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve">Климов Дмитрий Юрьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комаров Кирилл Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Латышев Олег Вадимович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Саар Семён Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смагин Леонид Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чмырь Егор Александрович</t>
+    <t>Климов Дмитрий Юрьевич</t>
+  </si>
+  <si>
+    <t>Комаров Кирилл Александрович</t>
+  </si>
+  <si>
+    <t>Латышев Олег Вадимович</t>
+  </si>
+  <si>
+    <t>Саар Семён Евгеньевич</t>
+  </si>
+  <si>
+    <t>Смагин Леонид Алексеевич</t>
+  </si>
+  <si>
+    <t>Чмырь Егор Александрович</t>
   </si>
   <si>
     <t>Legacy</t>
+  </si>
+  <si>
+    <t>Белолюбский Темир Константинович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,331 +174,112 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -686,24 +482,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" min="2" max="2" width="32.42578125"/>
-    <col min="3" max="20" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1"/>
+    <col min="3" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,7 +529,9 @@
       <c r="I1" s="3">
         <v>44963</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="3">
+        <v>44966</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -743,7 +543,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -771,7 +571,9 @@
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -783,35 +585,37 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -823,7 +627,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -834,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -851,7 +655,9 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -863,7 +669,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -891,7 +697,9 @@
       <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -903,7 +711,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -931,7 +739,9 @@
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -943,7 +753,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -971,7 +781,9 @@
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -983,7 +795,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1011,7 +823,9 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1023,7 +837,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1051,7 +865,9 @@
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1063,7 +879,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1074,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
@@ -1091,7 +907,9 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1103,7 +921,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1131,7 +949,9 @@
       <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1143,7 +963,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1151,27 +971,29 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1183,7 +1005,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1211,7 +1033,9 @@
       <c r="I13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1223,7 +1047,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1231,27 +1055,29 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1264,85 +1090,42 @@
       <c r="T14" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00EB00D5-003A-41D8-8BF4-002E00DB0023}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{008E00D0-00AB-4746-AB8F-00C800710066}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00FB0019-00EF-4F74-86CD-00A8001C003F}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T14</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:T14">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T14">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T14">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="34.140625"/>
-    <col min="3" max="19" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1156,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1398,12 +1181,12 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1423,7 +1206,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1448,7 +1231,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1479,7 +1262,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1508,7 +1291,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1537,7 +1320,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1566,7 +1349,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1595,7 +1378,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1620,7 +1403,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1647,7 +1430,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1672,7 +1455,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1699,7 +1482,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1725,28 +1508,27 @@
       <c r="S14" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" min="2" max="2" width="34.140625"/>
-    <col min="3" max="17" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1"/>
+    <col min="3" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1771,10 +1553,12 @@
       <c r="H1" s="3">
         <v>44958</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="3">
         <v>44964</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="3">
+        <v>44966</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1782,38 +1566,38 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" ht="15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1821,38 +1605,40 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1860,24 +1646,24 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -1888,10 +1674,12 @@
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1899,38 +1687,40 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1938,38 +1728,40 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1977,27 +1769,27 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7">
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
@@ -2005,10 +1797,12 @@
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2016,38 +1810,40 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8">
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2055,38 +1851,40 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2094,27 +1892,27 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10">
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>3</v>
@@ -2122,10 +1920,12 @@
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2133,38 +1933,40 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2172,24 +1974,24 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12">
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -2198,12 +2000,14 @@
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2211,24 +2015,24 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13">
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
@@ -2237,12 +2041,14 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2250,89 +2056,46 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002300E0-00C9-45A2-9D6C-0064007F00A1}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:Q13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{003D00E7-0025-4100-BB30-00E400220035}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:Q13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00440007-0090-4136-9E64-00E600F000D6}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:Q13</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:Q13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:Q13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:Q13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="O13" activeCellId="0" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="35.7109375"/>
-    <col min="3" max="18" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2106,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2360,12 +2123,12 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2384,12 +2147,12 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2410,12 +2173,12 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -2436,12 +2199,12 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2460,12 +2223,12 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -2486,12 +2249,12 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -2514,12 +2277,12 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -2542,12 +2305,12 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -2570,12 +2333,12 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -2598,12 +2361,12 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" ht="15">
+    <row r="11" spans="1:18" ht="15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -2626,12 +2389,12 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -2654,12 +2417,12 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -2683,9 +2446,7 @@
       <c r="R13" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A61D4F14-BA35-46AC-9F54-FAC74CDD1EA4}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805F8BAE-5DC6-4AC9-BFB2-358681423745}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -99,12 +99,12 @@
     <t>Зубов Максим Викторович</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Качур Григорий Алексеевич</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Климов Дмитрий Юрьевич</t>
   </si>
   <si>
@@ -123,7 +123,10 @@
     <t>Чмырь Егор Александрович</t>
   </si>
   <si>
-    <t>Legacy</t>
+    <t>Deleg</t>
+  </si>
+  <si>
+    <t>Encap</t>
   </si>
   <si>
     <t>Белолюбский Темир Константинович</t>
@@ -133,10 +136,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,6 +202,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +503,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -501,7 +513,7 @@
     <col min="3" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,9 +544,15 @@
       <c r="J1" s="3">
         <v>44966</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="3">
+        <v>44970</v>
+      </c>
+      <c r="L1" s="3">
+        <v>44972</v>
+      </c>
+      <c r="M1" s="7">
+        <v>44977</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -574,9 +592,15 @@
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -616,9 +640,15 @@
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -658,9 +688,15 @@
       <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -700,9 +736,15 @@
       <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -742,9 +784,15 @@
       <c r="J6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -784,9 +832,15 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -826,9 +880,15 @@
       <c r="J8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -868,9 +928,15 @@
       <c r="J9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -910,9 +976,15 @@
       <c r="J10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -952,9 +1024,15 @@
       <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -994,9 +1072,15 @@
       <c r="J12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1036,9 +1120,15 @@
       <c r="J13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1078,9 +1168,15 @@
       <c r="J14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1114,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1163,8 +1259,12 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1275,7 +1375,9 @@
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1413,7 +1515,9 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1517,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1559,9 +1663,15 @@
       <c r="J1" s="3">
         <v>44966</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="3">
+        <v>44971</v>
+      </c>
+      <c r="L1" s="3">
+        <v>44972</v>
+      </c>
+      <c r="M1" s="3">
+        <v>44978</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1598,9 +1708,15 @@
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1639,9 +1755,15 @@
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1680,9 +1802,15 @@
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1721,9 +1849,15 @@
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1762,9 +1896,15 @@
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1777,13 +1917,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
@@ -1803,9 +1943,15 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1836,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
@@ -1844,9 +1990,15 @@
       <c r="J8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1885,9 +2037,15 @@
       <c r="J9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1926,9 +2084,15 @@
       <c r="J10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1959,7 +2123,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>3</v>
@@ -1967,9 +2131,15 @@
       <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1977,7 +2147,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2003,14 +2173,20 @@
         <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2049,9 +2225,15 @@
       <c r="J13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2085,7 +2267,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2108,7 +2290,9 @@
       <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2128,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2183,7 +2367,9 @@
       <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2254,13 +2440,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2290,7 +2476,9 @@
       <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2400,9 +2588,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26223"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805F8BAE-5DC6-4AC9-BFB2-358681423745}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB9233E-D024-4FA9-9AEE-EBC9EB874F1A}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Encap</t>
+  </si>
+  <si>
+    <t>Decor</t>
   </si>
   <si>
     <t>Белолюбский Темир Константинович</t>
@@ -503,7 +506,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -553,7 +556,9 @@
       <c r="M1" s="7">
         <v>44977</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="3">
+        <v>44984</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -601,7 +606,9 @@
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -649,7 +656,9 @@
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -697,7 +706,9 @@
       <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -745,7 +756,9 @@
       <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -793,7 +806,9 @@
       <c r="M6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -841,7 +856,9 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -889,7 +906,9 @@
       <c r="M8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -937,7 +956,9 @@
       <c r="M9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -985,7 +1006,9 @@
       <c r="M10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1033,7 +1056,9 @@
       <c r="M11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1081,7 +1106,9 @@
       <c r="M12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1129,7 +1156,9 @@
       <c r="M13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1177,7 +1206,9 @@
       <c r="M14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1211,7 +1242,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1237,7 +1268,9 @@
       <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1407,7 +1440,9 @@
         <v>10</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1518,7 +1553,9 @@
       <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1622,7 +1659,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1632,7 +1669,7 @@
     <col min="3" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1669,10 +1706,12 @@
       <c r="L1" s="3">
         <v>44972</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="7">
         <v>44978</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="3">
+        <v>44985</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1717,7 +1756,9 @@
       <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="2">
+        <v>-15</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1764,7 +1805,9 @@
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2">
+        <v>10</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1811,7 +1854,9 @@
       <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2">
+        <v>10</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1858,7 +1903,9 @@
       <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1905,7 +1952,9 @@
       <c r="M6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2">
+        <v>10</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1952,7 +2001,9 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2">
+        <v>10</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1999,7 +2050,9 @@
       <c r="M8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2">
+        <v>10</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2046,7 +2099,9 @@
       <c r="M9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2">
+        <v>10</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2093,7 +2148,9 @@
       <c r="M10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -2140,7 +2197,9 @@
       <c r="M11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2">
+        <v>10</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2187,7 +2246,9 @@
       <c r="M12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2">
+        <v>10</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2234,7 +2295,9 @@
       <c r="M13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2267,7 +2330,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2293,7 +2356,9 @@
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2312,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2370,7 +2435,9 @@
       <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2448,7 +2515,9 @@
       <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2479,7 +2548,9 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2506,7 +2577,9 @@
       <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2534,7 +2607,9 @@
       <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2560,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2620,7 +2695,9 @@
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB9233E-D024-4FA9-9AEE-EBC9EB874F1A}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9826655B-6D2E-46E8-817B-52EF8EB2EE8F}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
     <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -87,6 +87,30 @@
     <t>Base</t>
   </si>
   <si>
+    <t>Deleg</t>
+  </si>
+  <si>
+    <t>Encap</t>
+  </si>
+  <si>
+    <t>Decor</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>15-25</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
     <t>Горбунов Константин Андрееевич</t>
   </si>
   <si>
@@ -121,15 +145,6 @@
   </si>
   <si>
     <t>Чмырь Егор Александрович</t>
-  </si>
-  <si>
-    <t>Deleg</t>
-  </si>
-  <si>
-    <t>Encap</t>
-  </si>
-  <si>
-    <t>Decor</t>
   </si>
   <si>
     <t>Белолюбский Темир Константинович</t>
@@ -161,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,11 +199,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +263,15 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +571,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -559,9 +624,15 @@
       <c r="N1" s="3">
         <v>44984</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="3">
+        <v>44986</v>
+      </c>
+      <c r="P1" s="3">
+        <v>44991</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>44994</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -609,9 +680,15 @@
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>15</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -659,9 +736,15 @@
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -709,9 +792,15 @@
       <c r="N4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>15</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -759,9 +848,15 @@
       <c r="N5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="O5" s="2">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>15</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -809,9 +904,15 @@
       <c r="N6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="O6" s="2">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>15</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -859,9 +960,15 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="O7" s="2">
+        <v>15</v>
+      </c>
+      <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>15</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -909,9 +1016,15 @@
       <c r="N8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="2">
+        <v>15</v>
+      </c>
+      <c r="P8" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>15</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -959,9 +1072,15 @@
       <c r="N9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="O9" s="2">
+        <v>15</v>
+      </c>
+      <c r="P9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>15</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1009,9 +1128,15 @@
       <c r="N10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="2">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>-10</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1059,9 +1184,15 @@
       <c r="N11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="O11" s="2">
+        <v>15</v>
+      </c>
+      <c r="P11" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>15</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1109,9 +1240,15 @@
       <c r="N12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="O12" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P12" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>-10</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1159,9 +1296,15 @@
       <c r="N13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="O13" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>15</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1209,9 +1352,15 @@
       <c r="N14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="O14" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P14" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>-10</v>
+      </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1239,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1252,7 +1401,7 @@
     <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1262,30 +1411,35 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1303,68 +1457,62 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10">
+        <f ca="1">SUM(C2:R2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10">
+        <f ca="1">SUM(C3:R3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10">
+        <f ca="1">SUM(C4:R4)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1380,22 +1528,20 @@
       <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10">
+        <f ca="1">SUM(C5:R5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1409,24 +1555,20 @@
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10">
+        <f ca="1">SUM(C6:R6)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1446,18 +1588,14 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10">
+        <f ca="1">SUM(C7:R7)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1470,23 +1608,21 @@
       <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10">
+        <f ca="1">SUM(C8:R8)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1504,43 +1640,37 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10">
+        <f ca="1">SUM(C9:R9)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10">
+        <f ca="1">SUM(C10:R10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1556,22 +1686,20 @@
       <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10">
+        <f ca="1">SUM(C11:R11)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1585,18 +1713,14 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10">
+        <f ca="1">SUM(C12:R12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1606,24 +1730,22 @@
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10">
+        <f ca="1">SUM(C13:R13)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1637,16 +1759,27 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10">
+        <f ca="1">SUM(C14:R14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
@@ -1658,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1712,9 +1845,15 @@
       <c r="N1" s="3">
         <v>44985</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="3">
+        <v>44986</v>
+      </c>
+      <c r="P1" s="3">
+        <v>44992</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>44994</v>
+      </c>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
     </row>
@@ -1759,9 +1898,15 @@
       <c r="N2" s="2">
         <v>-15</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-10</v>
+      </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
     </row>
@@ -1770,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1808,9 +1953,15 @@
       <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-10</v>
+      </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
@@ -1819,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1857,9 +2008,15 @@
       <c r="N4" s="2">
         <v>10</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>15</v>
+      </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
     </row>
@@ -1868,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -1906,9 +2063,15 @@
       <c r="N5" s="2">
         <v>10</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="O5" s="2">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>15</v>
+      </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
     </row>
@@ -1917,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1944,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>4</v>
@@ -1955,9 +2118,15 @@
       <c r="N6" s="2">
         <v>10</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="O6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>15</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
     </row>
@@ -1966,13 +2135,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
@@ -2004,9 +2173,15 @@
       <c r="N7" s="2">
         <v>10</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="O7" s="2">
+        <v>15</v>
+      </c>
+      <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>15</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
     </row>
@@ -2015,7 +2190,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -2033,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
@@ -2053,9 +2228,15 @@
       <c r="N8" s="2">
         <v>10</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>15</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
     </row>
@@ -2064,7 +2245,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -2091,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>4</v>
@@ -2102,9 +2283,15 @@
       <c r="N9" s="2">
         <v>10</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="O9" s="2">
+        <v>15</v>
+      </c>
+      <c r="P9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>15</v>
+      </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
     </row>
@@ -2113,7 +2300,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -2140,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>4</v>
@@ -2151,9 +2338,15 @@
       <c r="N10" s="2">
         <v>10</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="2">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>15</v>
+      </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
     </row>
@@ -2162,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -2180,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>3</v>
@@ -2189,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>3</v>
@@ -2200,9 +2393,15 @@
       <c r="N11" s="2">
         <v>10</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="O11" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P11" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>15</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
     </row>
@@ -2211,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -2232,10 +2431,10 @@
         <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>3</v>
@@ -2249,9 +2448,15 @@
       <c r="N12" s="2">
         <v>10</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="O12" s="2">
+        <v>15</v>
+      </c>
+      <c r="P12" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>15</v>
+      </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
@@ -2260,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -2298,9 +2503,15 @@
       <c r="N13" s="2">
         <v>10</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="O13" s="2">
+        <v>15</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>15</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
     </row>
@@ -2329,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2340,7 +2551,7 @@
     <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2351,33 +2562,39 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2387,47 +2604,43 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9">
+        <f ca="1">SUM(C2:Q2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="K3" s="8"/>
+      <c r="L3" s="9">
+        <f ca="1">SUM(C3:Q3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -2443,21 +2656,18 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="K4" s="8"/>
+      <c r="L4" s="9">
+        <f ca="1">SUM(C4:Q4)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2467,21 +2677,18 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="K5" s="8"/>
+      <c r="L5" s="9">
+        <f ca="1">SUM(C5:Q5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -2493,21 +2700,18 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="K6" s="8"/>
+      <c r="L6" s="9">
+        <f ca="1">SUM(C6:Q6)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -2523,21 +2727,18 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="K7" s="8"/>
+      <c r="L7" s="9">
+        <f ca="1">SUM(C7:Q7)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -2549,27 +2750,24 @@
         <v>10</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="K8" s="8"/>
+      <c r="L8" s="9">
+        <f ca="1">SUM(C8:Q8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -2585,21 +2783,18 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="K9" s="8"/>
+      <c r="L9" s="9">
+        <f ca="1">SUM(C9:Q9)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -2615,21 +2810,18 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" ht="15">
+      <c r="K10" s="8"/>
+      <c r="L10" s="9">
+        <f ca="1">SUM(C10:Q10)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -2643,21 +2835,18 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="K11" s="8"/>
+      <c r="L11" s="9">
+        <f ca="1">SUM(C11:Q11)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -2673,21 +2862,18 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="K12" s="8"/>
+      <c r="L12" s="9">
+        <f ca="1">SUM(C12:Q12)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -2703,14 +2889,11 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9">
+        <f ca="1">SUM(C13:Q13)</f>
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26307"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="317" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9826655B-6D2E-46E8-817B-52EF8EB2EE8F}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E96BA8-9A60-452E-BA99-BD7B452895C4}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -633,7 +633,9 @@
       <c r="Q1" s="3">
         <v>44994</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="3">
+        <v>44998</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
@@ -689,7 +691,9 @@
       <c r="Q2" s="2">
         <v>15</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="2">
+        <v>10</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
@@ -745,7 +749,9 @@
       <c r="Q3" s="2">
         <v>15</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2">
+        <v>-15</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
@@ -801,7 +807,9 @@
       <c r="Q4" s="2">
         <v>15</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>-15</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
@@ -857,7 +865,9 @@
       <c r="Q5" s="2">
         <v>15</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2">
+        <v>10</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
@@ -913,7 +923,9 @@
       <c r="Q6" s="2">
         <v>15</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2">
+        <v>10</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
@@ -969,7 +981,9 @@
       <c r="Q7" s="2">
         <v>15</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>10</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
@@ -1025,7 +1039,9 @@
       <c r="Q8" s="2">
         <v>15</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <v>10</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
@@ -1081,7 +1097,9 @@
       <c r="Q9" s="2">
         <v>15</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <v>10</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
@@ -1137,7 +1155,9 @@
       <c r="Q10" s="2">
         <v>-10</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2">
+        <v>-15</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
@@ -1193,7 +1213,9 @@
       <c r="Q11" s="2">
         <v>15</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>10</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
@@ -1249,7 +1271,9 @@
       <c r="Q12" s="2">
         <v>-10</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>-15</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
@@ -1305,7 +1329,9 @@
       <c r="Q13" s="2">
         <v>15</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2">
+        <v>10</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
@@ -1361,7 +1387,9 @@
       <c r="Q14" s="2">
         <v>-10</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>-15</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
@@ -1391,7 +1419,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2540,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="333" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E96BA8-9A60-452E-BA99-BD7B452895C4}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE4D341-A957-4BCC-9407-D21AF64863D7}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -96,19 +96,22 @@
     <t>Decor</t>
   </si>
   <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
     <t>Тест</t>
   </si>
   <si>
     <t>Итог</t>
   </si>
   <si>
-    <t>15-25</t>
-  </si>
-  <si>
-    <t>25-35</t>
-  </si>
-  <si>
-    <t>35-40</t>
+    <t>Белолюбский Темир Константинович</t>
   </si>
   <si>
     <t>Горбунов Константин Андрееевич</t>
@@ -145,9 +148,6 @@
   </si>
   <si>
     <t>Чмырь Егор Александрович</t>
-  </si>
-  <si>
-    <t>Белолюбский Темир Константинович</t>
   </si>
 </sst>
 </file>
@@ -259,9 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,6 +269,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -570,8 +570,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -618,7 +621,7 @@
       <c r="L1" s="3">
         <v>44972</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="6">
         <v>44977</v>
       </c>
       <c r="N1" s="3">
@@ -636,7 +639,9 @@
       <c r="R1" s="3">
         <v>44998</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="3">
+        <v>45000</v>
+      </c>
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20">
@@ -694,7 +699,9 @@
       <c r="R2" s="2">
         <v>10</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20">
@@ -752,7 +759,9 @@
       <c r="R3" s="2">
         <v>-15</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="2">
+        <v>15</v>
+      </c>
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20">
@@ -810,7 +819,9 @@
       <c r="R4" s="2">
         <v>-15</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2">
+        <v>-10</v>
+      </c>
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20">
@@ -868,7 +879,9 @@
       <c r="R5" s="2">
         <v>10</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2">
+        <v>15</v>
+      </c>
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
@@ -926,7 +939,9 @@
       <c r="R6" s="2">
         <v>10</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2">
+        <v>15</v>
+      </c>
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20">
@@ -984,7 +999,9 @@
       <c r="R7" s="2">
         <v>10</v>
       </c>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20">
@@ -1042,7 +1059,9 @@
       <c r="R8" s="2">
         <v>10</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="2">
+        <v>15</v>
+      </c>
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20">
@@ -1100,7 +1119,9 @@
       <c r="R9" s="2">
         <v>10</v>
       </c>
-      <c r="S9" s="2"/>
+      <c r="S9" s="2">
+        <v>15</v>
+      </c>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20">
@@ -1156,9 +1177,11 @@
         <v>-10</v>
       </c>
       <c r="R10" s="2">
-        <v>-15</v>
-      </c>
-      <c r="S10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>15</v>
+      </c>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20">
@@ -1216,7 +1239,9 @@
       <c r="R11" s="2">
         <v>10</v>
       </c>
-      <c r="S11" s="2"/>
+      <c r="S11" s="2">
+        <v>15</v>
+      </c>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20">
@@ -1274,7 +1299,9 @@
       <c r="R12" s="2">
         <v>-15</v>
       </c>
-      <c r="S12" s="2"/>
+      <c r="S12" s="2">
+        <v>-10</v>
+      </c>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20">
@@ -1332,7 +1359,9 @@
       <c r="R13" s="2">
         <v>10</v>
       </c>
-      <c r="S13" s="2"/>
+      <c r="S13" s="2">
+        <v>15</v>
+      </c>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20">
@@ -1390,7 +1419,9 @@
       <c r="R14" s="2">
         <v>-15</v>
       </c>
-      <c r="S14" s="2"/>
+      <c r="S14" s="2">
+        <v>-10</v>
+      </c>
       <c r="T14" s="2"/>
     </row>
   </sheetData>
@@ -1416,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F16:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1429,7 +1460,7 @@
     <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1448,26 +1479,23 @@
       <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2">
-        <v>7</v>
-      </c>
-      <c r="J1" s="8">
-        <v>8</v>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1486,13 +1514,12 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <f ca="1">SUM(C2:R2)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1509,13 +1536,12 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <f ca="1">SUM(C3:R3)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1534,13 +1560,12 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10">
+      <c r="K4" s="9">
         <f ca="1">SUM(C4:R4)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1563,13 +1588,12 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <f ca="1">SUM(C5:R5)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1590,13 +1614,12 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10">
+      <c r="K6" s="9">
         <f ca="1">SUM(C6:R6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1617,13 +1640,12 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10">
+      <c r="K7" s="9">
         <f ca="1">SUM(C7:R7)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1644,13 +1666,12 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10">
+      <c r="K8" s="9">
         <f ca="1">SUM(C8:R8)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1669,13 +1690,12 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10">
+      <c r="K9" s="9">
         <f ca="1">SUM(C9:R9)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1692,13 +1712,12 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10">
+      <c r="K10" s="9">
         <f ca="1">SUM(C10:R10)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1721,13 +1740,12 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10">
+      <c r="K11" s="9">
         <f ca="1">SUM(C11:R11)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1742,13 +1760,12 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10">
+      <c r="K12" s="9">
         <f ca="1">SUM(C12:R12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1767,13 +1784,12 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10">
+      <c r="K13" s="9">
         <f ca="1">SUM(C13:R13)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1788,25 +1804,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10">
+      <c r="K14" s="9">
         <f ca="1">SUM(C14:R14)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1817,17 +1817,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <pane xSplit="2" ySplit="13" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1"/>
-    <col min="3" max="17" width="9.140625" style="1"/>
+    <col min="3" max="22" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15">
@@ -1867,7 +1870,7 @@
       <c r="L1" s="3">
         <v>44972</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="6">
         <v>44978</v>
       </c>
       <c r="N1" s="3">
@@ -1882,14 +1885,20 @@
       <c r="Q1" s="3">
         <v>44994</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="R1" s="10">
+        <v>44999</v>
+      </c>
+      <c r="S1" s="10">
+        <v>45000</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1935,15 +1944,19 @@
       <c r="Q2" s="2">
         <v>-10</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="R2" s="1">
+        <v>-15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1990,15 +2003,19 @@
       <c r="Q3" s="2">
         <v>-10</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="R3" s="1">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -2045,15 +2062,19 @@
       <c r="Q4" s="2">
         <v>15</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -2100,15 +2121,19 @@
       <c r="Q5" s="2">
         <v>15</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="R5" s="1">
+        <v>-15</v>
+      </c>
+      <c r="S5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -2135,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>4</v>
@@ -2155,21 +2180,25 @@
       <c r="Q6" s="2">
         <v>15</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="R6" s="1">
+        <v>-15</v>
+      </c>
+      <c r="S6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
@@ -2210,15 +2239,19 @@
       <c r="Q7" s="2">
         <v>15</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="R7" s="1">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -2236,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
@@ -2265,15 +2298,19 @@
       <c r="Q8" s="2">
         <v>15</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="R8" s="1">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -2300,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>4</v>
@@ -2320,15 +2357,19 @@
       <c r="Q9" s="2">
         <v>15</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="R9" s="1">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -2355,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>4</v>
@@ -2375,15 +2416,19 @@
       <c r="Q10" s="2">
         <v>15</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -2401,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>3</v>
@@ -2410,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>3</v>
@@ -2430,15 +2475,19 @@
       <c r="Q11" s="2">
         <v>15</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="R11" s="1">
+        <v>-15</v>
+      </c>
+      <c r="S11" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -2459,10 +2508,10 @@
         <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>3</v>
@@ -2485,15 +2534,19 @@
       <c r="Q12" s="2">
         <v>15</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="R12" s="1">
+        <v>-15</v>
+      </c>
+      <c r="S12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -2540,8 +2593,12 @@
       <c r="Q13" s="2">
         <v>15</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+      <c r="S13" s="1">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:Q13">
@@ -2569,7 +2626,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2610,11 +2667,11 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>22</v>
+      <c r="K1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2622,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2632,8 +2689,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9">
+      <c r="K2" s="7"/>
+      <c r="L2" s="8">
         <f ca="1">SUM(C2:Q2)</f>
         <v>0</v>
       </c>
@@ -2643,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2651,14 +2708,16 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9">
+      <c r="K3" s="7"/>
+      <c r="L3" s="8">
         <f ca="1">SUM(C3:Q3)</f>
         <v>15</v>
       </c>
@@ -2668,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -2684,8 +2743,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9">
+      <c r="K4" s="7"/>
+      <c r="L4" s="8">
         <f ca="1">SUM(C4:Q4)</f>
         <v>30</v>
       </c>
@@ -2695,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2705,8 +2764,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9">
+      <c r="K5" s="7"/>
+      <c r="L5" s="8">
         <f ca="1">SUM(C5:Q5)</f>
         <v>0</v>
       </c>
@@ -2716,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -2728,8 +2787,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9">
+      <c r="K6" s="7"/>
+      <c r="L6" s="8">
         <f ca="1">SUM(C6:Q6)</f>
         <v>10</v>
       </c>
@@ -2739,7 +2798,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -2755,8 +2814,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9">
+      <c r="K7" s="7"/>
+      <c r="L7" s="8">
         <f ca="1">SUM(C7:Q7)</f>
         <v>30</v>
       </c>
@@ -2766,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -2784,8 +2843,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9">
+      <c r="K8" s="7"/>
+      <c r="L8" s="8">
         <f ca="1">SUM(C8:Q8)</f>
         <v>40</v>
       </c>
@@ -2795,7 +2854,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -2811,8 +2870,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9">
+      <c r="K9" s="7"/>
+      <c r="L9" s="8">
         <f ca="1">SUM(C9:Q9)</f>
         <v>30</v>
       </c>
@@ -2822,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -2838,8 +2897,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9">
+      <c r="K10" s="7"/>
+      <c r="L10" s="8">
         <f ca="1">SUM(C10:Q10)</f>
         <v>30</v>
       </c>
@@ -2849,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -2863,8 +2922,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9">
+      <c r="K11" s="7"/>
+      <c r="L11" s="8">
         <f ca="1">SUM(C11:Q11)</f>
         <v>20</v>
       </c>
@@ -2874,7 +2933,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -2890,8 +2949,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9">
+      <c r="K12" s="7"/>
+      <c r="L12" s="8">
         <f ca="1">SUM(C12:Q12)</f>
         <v>25</v>
       </c>
@@ -2901,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -2917,8 +2976,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9">
+      <c r="K13" s="7"/>
+      <c r="L13" s="8">
         <f ca="1">SUM(C13:Q13)</f>
         <v>30</v>
       </c>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="388" documentId="11_A1BD31826515F02EEA234EF3DD33937E00BBBA90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE4D341-A957-4BCC-9407-D21AF64863D7}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
-    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId2"/>
-    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcCompleted="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -39,7 +24,7 @@
     <t>Студент</t>
   </si>
   <si>
-    <t>Бабкина Олеся Олеговна</t>
+    <t xml:space="preserve">Бабкина Олеся Олеговна</t>
   </si>
   <si>
     <t>+</t>
@@ -48,40 +33,40 @@
     <t>-</t>
   </si>
   <si>
-    <t>Головня Тимофей Денисович</t>
-  </si>
-  <si>
-    <t>Григорьева Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>Казаков Михаил Евгеньевич</t>
-  </si>
-  <si>
-    <t>Калашников Игорь Юрьевич</t>
-  </si>
-  <si>
-    <t>Калмаков Алексей Евгеньевич</t>
-  </si>
-  <si>
-    <t>Карпенко Анна Сергеевна</t>
-  </si>
-  <si>
-    <t>Лобанов Тимур Хамзатович</t>
-  </si>
-  <si>
-    <t>Назаров Ярослав Павлович</t>
-  </si>
-  <si>
-    <t>Овсянников Павел Алексеевич</t>
-  </si>
-  <si>
-    <t>Потапова Мария</t>
-  </si>
-  <si>
-    <t>Шматков Михаил Сергеевич</t>
-  </si>
-  <si>
-    <t>Бадалян Карен</t>
+    <t xml:space="preserve">Головня Тимофей Денисович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Григорьева Татьяна Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казаков Михаил Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калашников Игорь Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калмаков Алексей Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпенко Анна Сергеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лобанов Тимур Хамзатович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Назаров Ярослав Павлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Овсянников Павел Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потапова Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шматков Михаил Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бадалян Карен</t>
   </si>
   <si>
     <t>Base</t>
@@ -111,60 +96,60 @@
     <t>Итог</t>
   </si>
   <si>
-    <t>Белолюбский Темир Константинович</t>
-  </si>
-  <si>
-    <t>Горбунов Константин Андрееевич</t>
-  </si>
-  <si>
-    <t>Гураль Даниил Александрович</t>
-  </si>
-  <si>
-    <t>Зазорнов Данил Сергеевич</t>
-  </si>
-  <si>
-    <t>Зубов Максим Викторович</t>
+    <t xml:space="preserve">Белолюбский Темир Константинович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горбунов Константин Андрееевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гураль Даниил Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зазорнов Данил Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зубов Максим Викторович</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Качур Григорий Алексеевич</t>
-  </si>
-  <si>
-    <t>Климов Дмитрий Юрьевич</t>
-  </si>
-  <si>
-    <t>Комаров Кирилл Александрович</t>
-  </si>
-  <si>
-    <t>Латышев Олег Вадимович</t>
-  </si>
-  <si>
-    <t>Саар Семён Евгеньевич</t>
-  </si>
-  <si>
-    <t>Смагин Леонид Алексеевич</t>
-  </si>
-  <si>
-    <t>Чмырь Егор Александрович</t>
+    <t xml:space="preserve">Качур Григорий Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Климов Дмитрий Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комаров Кирилл Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латышев Олег Вадимович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саар Семён Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смагин Леонид Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чмырь Егор Александрович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <color indexed="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,6 +186,34 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
       <right/>
@@ -212,154 +225,342 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -562,29 +763,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1"/>
-    <col min="3" max="20" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="32.42578125"/>
+    <col min="3" max="20" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +818,7 @@
       <c r="L1" s="3">
         <v>44972</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <v>44977</v>
       </c>
       <c r="N1" s="3">
@@ -642,13 +839,15 @@
       <c r="S1" s="3">
         <v>45000</v>
       </c>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4">
+      <c r="T1" s="3">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -702,13 +901,15 @@
       <c r="S2" s="2">
         <v>15</v>
       </c>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4">
+      <c r="T2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -762,13 +963,15 @@
       <c r="S3" s="2">
         <v>15</v>
       </c>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="T3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -822,13 +1025,15 @@
       <c r="S4" s="2">
         <v>-10</v>
       </c>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="T4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -882,13 +1087,15 @@
       <c r="S5" s="2">
         <v>15</v>
       </c>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="4">
+      <c r="T5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -942,13 +1149,15 @@
       <c r="S6" s="2">
         <v>15</v>
       </c>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="4">
+      <c r="T6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1002,13 +1211,15 @@
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="4">
+      <c r="T7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1062,13 +1273,15 @@
       <c r="S8" s="2">
         <v>15</v>
       </c>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="4">
+      <c r="T8" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1122,13 +1335,15 @@
       <c r="S9" s="2">
         <v>15</v>
       </c>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="4">
+      <c r="T9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1182,13 +1397,15 @@
       <c r="S10" s="2">
         <v>15</v>
       </c>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="T10" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1242,13 +1459,15 @@
       <c r="S11" s="2">
         <v>15</v>
       </c>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="4">
+      <c r="T11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1302,13 +1521,15 @@
       <c r="S12" s="2">
         <v>-10</v>
       </c>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="4">
+      <c r="T12" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1362,13 +1583,15 @@
       <c r="S13" s="2">
         <v>15</v>
       </c>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="4">
+      <c r="T13" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1422,45 +1645,90 @@
       <c r="S14" s="2">
         <v>-10</v>
       </c>
-      <c r="T14" s="2"/>
+      <c r="T14" s="2">
+        <v>-10</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:T14">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T14">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0094000B-0007-405B-BA6D-00190018009D}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005C0058-0077-464F-9293-009D001F0026}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00ED00D3-0023-4FC0-9CD0-00CB00CF0048}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F16:H22"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="F22" activeCellId="0" sqref="F16:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="34.140625"/>
+    <col min="3" max="19" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1488,18 +1756,18 @@
       <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
@@ -1513,17 +1781,17 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9">
-        <f ca="1">SUM(C2:R2)</f>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7">
+        <f t="shared" ref="K2:K9" si="0">SUM(C2:J2)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
@@ -1535,17 +1803,17 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9">
-        <f ca="1">SUM(C3:R3)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1559,17 +1827,17 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9">
-        <f ca="1">SUM(C4:R4)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
@@ -1587,17 +1855,17 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9">
-        <f ca="1">SUM(C5:R5)</f>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2">
@@ -1613,17 +1881,17 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9">
-        <f ca="1">SUM(C6:R6)</f>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2">
@@ -1639,17 +1907,17 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9">
-        <f ca="1">SUM(C7:R7)</f>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2">
@@ -1665,17 +1933,17 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9">
-        <f ca="1">SUM(C8:R8)</f>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
@@ -1689,17 +1957,17 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9">
-        <f ca="1">SUM(C9:R9)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4">
+      <c r="J9" s="6"/>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2">
@@ -1711,17 +1979,17 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9">
-        <f ca="1">SUM(C10:R10)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="7">
+        <f t="shared" ref="K10:K14" si="1">SUM(C10:J10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2">
@@ -1739,17 +2007,17 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9">
-        <f ca="1">SUM(C11:R11)</f>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4">
+    <row r="12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2"/>
@@ -1759,17 +2027,17 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9">
-        <f ca="1">SUM(C12:R12)</f>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2">
@@ -1783,17 +2051,17 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9">
-        <f ca="1">SUM(C13:R13)</f>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4">
+    <row r="14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
@@ -1803,41 +2071,40 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9">
-        <f ca="1">SUM(C14:R14)</f>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="13" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1"/>
-    <col min="3" max="22" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="34.140625"/>
+    <col min="3" max="22" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
@@ -1870,7 +2137,7 @@
       <c r="L1" s="3">
         <v>44972</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <v>44978</v>
       </c>
       <c r="N1" s="3">
@@ -1885,18 +2152,24 @@
       <c r="Q1" s="3">
         <v>44994</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="9">
         <v>44999</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="9">
         <v>45000</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="5">
+      <c r="T1" s="9">
+        <v>45006</v>
+      </c>
+      <c r="U1" s="10">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1950,12 +2223,18 @@
       <c r="S2" s="1">
         <v>-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="5">
+      <c r="T2" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" ht="15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2009,12 +2288,18 @@
       <c r="S3" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="15">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="T3" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2068,12 +2353,18 @@
       <c r="S4" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="15">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="T4" s="1">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2127,12 +2418,18 @@
       <c r="S5" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="5">
+      <c r="T5" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" ht="15">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2186,12 +2483,18 @@
       <c r="S6" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="15">
-      <c r="A7" s="5">
+      <c r="T6" s="1">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" ht="15">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2245,12 +2548,18 @@
       <c r="S7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="15">
-      <c r="A8" s="5">
+      <c r="T7" s="1">
+        <v>10</v>
+      </c>
+      <c r="U7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2304,12 +2613,18 @@
       <c r="S8" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="15">
-      <c r="A9" s="5">
+      <c r="T8" s="1">
+        <v>10</v>
+      </c>
+      <c r="U8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="15">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2363,12 +2678,18 @@
       <c r="S9" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15">
-      <c r="A10" s="5">
+      <c r="T9" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2422,12 +2743,18 @@
       <c r="S10" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="T10" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2481,12 +2808,18 @@
       <c r="S11" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15">
-      <c r="A12" s="5">
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" ht="15">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2540,12 +2873,18 @@
       <c r="S12" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="5">
+      <c r="T12" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2599,44 +2938,93 @@
       <c r="S13" s="1">
         <v>15</v>
       </c>
+      <c r="T13" s="1">
+        <v>10</v>
+      </c>
+      <c r="U13" s="1">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:Q13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:Q13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:Q13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00A800DB-0017-44D6-8B44-001900800010}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:Q13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00510006-00A0-4C4B-8B2D-00F0009000DF}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:Q13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{008E009C-00D2-4BEE-BF74-002F00DE00EB}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:Q13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="35.7109375"/>
+    <col min="3" max="18" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2667,18 +3055,18 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2"/>
@@ -2689,17 +3077,17 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8">
-        <f ca="1">SUM(C2:Q2)</f>
+      <c r="K2" s="11"/>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:L9" si="2">SUM(C2:K2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2">
@@ -2716,17 +3104,17 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8">
-        <f ca="1">SUM(C3:Q3)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2">
@@ -2743,17 +3131,17 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8">
-        <f ca="1">SUM(C4:Q4)</f>
+      <c r="K4" s="11"/>
+      <c r="L4" s="6">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2"/>
@@ -2764,40 +3152,44 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8">
-        <f ca="1">SUM(C5:Q5)</f>
+      <c r="K5" s="11"/>
+      <c r="L5" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8">
-        <f ca="1">SUM(C6:Q6)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="4">
+      <c r="K6" s="11"/>
+      <c r="L6" s="6">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2">
@@ -2814,17 +3206,17 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8">
-        <f ca="1">SUM(C7:Q7)</f>
+      <c r="K7" s="11"/>
+      <c r="L7" s="6">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="2">
@@ -2843,17 +3235,17 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8">
-        <f ca="1">SUM(C8:Q8)</f>
+      <c r="K8" s="11"/>
+      <c r="L8" s="6">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="2">
@@ -2870,17 +3262,17 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8">
-        <f ca="1">SUM(C9:Q9)</f>
+      <c r="K9" s="11"/>
+      <c r="L9" s="6">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2">
@@ -2897,17 +3289,17 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8">
-        <f ca="1">SUM(C10:Q10)</f>
+      <c r="K10" s="11"/>
+      <c r="L10" s="6">
+        <f t="shared" ref="L10:L13" si="3">SUM(C10:K10)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" ht="15">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2">
@@ -2917,22 +3309,24 @@
         <v>10</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8">
-        <f ca="1">SUM(C11:Q11)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4">
+      <c r="K11" s="11"/>
+      <c r="L11" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2">
@@ -2949,17 +3343,17 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8">
-        <f ca="1">SUM(C12:Q12)</f>
+      <c r="K12" s="11"/>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="2">
@@ -2976,14 +3370,16 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8">
-        <f ca="1">SUM(C13:Q13)</f>
+      <c r="K13" s="11"/>
+      <c r="L13" s="6">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +243,10 @@
     <xf fontId="1" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,9 +256,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,6 +780,7 @@
     <col bestFit="1" min="1" max="1" width="2.85546875"/>
     <col bestFit="1" min="2" max="2" width="32.42578125"/>
     <col min="3" max="20" style="1" width="9.140625"/>
+    <col min="22" max="27" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
@@ -842,12 +844,18 @@
       <c r="T1" s="3">
         <v>45008</v>
       </c>
+      <c r="U1" s="5">
+        <v>45012</v>
+      </c>
+      <c r="V1" s="6">
+        <v>45014</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -904,12 +912,18 @@
       <c r="T2" s="2">
         <v>15</v>
       </c>
+      <c r="U2">
+        <v>-15</v>
+      </c>
+      <c r="V2" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -966,12 +980,18 @@
       <c r="T3" s="2">
         <v>15</v>
       </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1028,12 +1048,18 @@
       <c r="T4" s="2">
         <v>15</v>
       </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1090,12 +1116,18 @@
       <c r="T5" s="2">
         <v>15</v>
       </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1152,12 +1184,18 @@
       <c r="T6" s="2">
         <v>15</v>
       </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1214,12 +1252,18 @@
       <c r="T7" s="2">
         <v>15</v>
       </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1276,12 +1320,18 @@
       <c r="T8" s="2">
         <v>15</v>
       </c>
+      <c r="U8">
+        <v>-15</v>
+      </c>
+      <c r="V8" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1338,12 +1388,18 @@
       <c r="T9" s="2">
         <v>15</v>
       </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1400,12 +1456,18 @@
       <c r="T10" s="2">
         <v>-10</v>
       </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1462,12 +1524,18 @@
       <c r="T11" s="2">
         <v>15</v>
       </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1524,12 +1592,18 @@
       <c r="T12" s="2">
         <v>-10</v>
       </c>
+      <c r="U12">
+        <v>-15</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1586,12 +1660,18 @@
       <c r="T13" s="2">
         <v>15</v>
       </c>
+      <c r="U13">
+        <v>-15</v>
+      </c>
+      <c r="V13" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1646,6 +1726,12 @@
         <v>-10</v>
       </c>
       <c r="T14" s="2">
+        <v>-10</v>
+      </c>
+      <c r="U14">
+        <v>-15</v>
+      </c>
+      <c r="V14" s="1">
         <v>-10</v>
       </c>
     </row>
@@ -1658,7 +1744,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0094000B-0007-405B-BA6D-00190018009D}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00C40067-003F-401F-A1FB-00A600B3006E}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1675,7 +1761,7 @@
           <xm:sqref>C2:T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005C0058-0077-464F-9293-009D001F0026}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{003300BE-0024-45FD-B695-00C400F100DE}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1692,7 +1778,7 @@
           <xm:sqref>C2:T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00ED00D3-0023-4FC0-9CD0-00CB00CF0048}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D500A5-0014-4618-8420-0072007C00B5}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1756,18 +1842,18 @@
       <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
@@ -1781,17 +1867,17 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7">
+      <c r="J2" s="8"/>
+      <c r="K2" s="9">
         <f t="shared" ref="K2:K9" si="0">SUM(C2:J2)</f>
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
@@ -1803,17 +1889,17 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7">
+      <c r="J3" s="8"/>
+      <c r="K3" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1827,17 +1913,17 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7">
+      <c r="J4" s="8"/>
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
@@ -1855,17 +1941,17 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7">
+      <c r="J5" s="8"/>
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2">
@@ -1877,21 +1963,23 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7">
+      <c r="J6" s="8"/>
+      <c r="K6" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2">
@@ -1907,17 +1995,17 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7">
+      <c r="J7" s="8"/>
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2">
@@ -1933,17 +2021,17 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7">
+      <c r="J8" s="8"/>
+      <c r="K8" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
@@ -1957,17 +2045,17 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7">
+      <c r="J9" s="8"/>
+      <c r="K9" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2">
@@ -1979,17 +2067,17 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7">
+      <c r="J10" s="8"/>
+      <c r="K10" s="9">
         <f t="shared" ref="K10:K14" si="1">SUM(C10:J10)</f>
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2">
@@ -2007,17 +2095,17 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7">
+      <c r="J11" s="8"/>
+      <c r="K11" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2"/>
@@ -2027,17 +2115,17 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7">
+      <c r="J12" s="8"/>
+      <c r="K12" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2">
@@ -2051,17 +2139,17 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7">
+      <c r="J13" s="8"/>
+      <c r="K13" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
@@ -2071,8 +2159,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7">
+      <c r="J14" s="8"/>
+      <c r="K14" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2098,13 +2186,14 @@
     <col bestFit="1" min="1" max="1" width="2.85546875"/>
     <col bestFit="1" min="2" max="2" width="34.140625"/>
     <col min="3" max="22" style="1" width="9.140625"/>
+    <col min="23" max="29" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
@@ -2152,24 +2241,30 @@
       <c r="Q1" s="3">
         <v>44994</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="11">
         <v>44999</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="11">
         <v>45000</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="11">
         <v>45006</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="11">
         <v>45008</v>
       </c>
+      <c r="V1" s="11">
+        <v>45013</v>
+      </c>
+      <c r="W1" s="6">
+        <v>45014</v>
+      </c>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2229,12 +2324,18 @@
       <c r="U2" s="1">
         <v>-10</v>
       </c>
+      <c r="V2" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W2" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2294,12 +2395,18 @@
       <c r="U3" s="1">
         <v>-10</v>
       </c>
+      <c r="V3" s="1">
+        <v>10</v>
+      </c>
+      <c r="W3" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2359,12 +2466,18 @@
       <c r="U4" s="1">
         <v>15</v>
       </c>
+      <c r="V4" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W4" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2424,12 +2537,18 @@
       <c r="U5" s="1">
         <v>-10</v>
       </c>
+      <c r="V5" s="1">
+        <v>10</v>
+      </c>
+      <c r="W5" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2489,12 +2608,18 @@
       <c r="U6" s="1">
         <v>-10</v>
       </c>
+      <c r="V6" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W6" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2554,12 +2679,18 @@
       <c r="U7" s="1">
         <v>15</v>
       </c>
+      <c r="V7" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W7" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" ht="15">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2619,12 +2750,18 @@
       <c r="U8" s="1">
         <v>15</v>
       </c>
+      <c r="V8" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="8">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2684,12 +2821,18 @@
       <c r="U9" s="1">
         <v>15</v>
       </c>
+      <c r="V9" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2749,12 +2892,18 @@
       <c r="U10" s="1">
         <v>-10</v>
       </c>
+      <c r="V10" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W10" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2814,12 +2963,18 @@
       <c r="U11" s="1">
         <v>-10</v>
       </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="8">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2879,12 +3034,18 @@
       <c r="U12" s="1">
         <v>15</v>
       </c>
+      <c r="V12" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W12" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2942,6 +3103,12 @@
         <v>10</v>
       </c>
       <c r="U13" s="1">
+        <v>15</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W13" s="1">
         <v>15</v>
       </c>
     </row>
@@ -2954,7 +3121,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00A800DB-0017-44D6-8B44-001900800010}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00C20040-002F-41E7-BA4C-00A100D80048}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2971,7 +3138,7 @@
           <xm:sqref>C2:Q13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00510006-00A0-4C4B-8B2D-00F0009000DF}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004600F3-0029-4502-AABB-004600DE00CE}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2988,7 +3155,7 @@
           <xm:sqref>C2:Q13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{008E009C-00D2-4BEE-BF74-002F00DE00EB}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006100EC-00C7-4FA7-9582-00D9003A00E3}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -3055,18 +3222,18 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2"/>
@@ -3077,17 +3244,17 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="6">
+      <c r="K2" s="12"/>
+      <c r="L2" s="8">
         <f t="shared" ref="L2:L9" si="2">SUM(C2:K2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2">
@@ -3104,17 +3271,17 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="6">
+      <c r="K3" s="12"/>
+      <c r="L3" s="8">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2">
@@ -3131,17 +3298,17 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="6">
+      <c r="K4" s="12"/>
+      <c r="L4" s="8">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2"/>
@@ -3152,17 +3319,17 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="6">
+      <c r="K5" s="12"/>
+      <c r="L5" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2">
@@ -3179,17 +3346,17 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="6">
+      <c r="K6" s="12"/>
+      <c r="L6" s="8">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2">
@@ -3206,17 +3373,17 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="6">
+      <c r="K7" s="12"/>
+      <c r="L7" s="8">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="2">
@@ -3235,17 +3402,17 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="6">
+      <c r="K8" s="12"/>
+      <c r="L8" s="8">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="2">
@@ -3262,17 +3429,17 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="6">
+      <c r="K9" s="12"/>
+      <c r="L9" s="8">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2">
@@ -3289,17 +3456,17 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="6">
+      <c r="K10" s="12"/>
+      <c r="L10" s="8">
         <f t="shared" ref="L10:L13" si="3">SUM(C10:K10)</f>
         <v>30</v>
       </c>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2">
@@ -3316,17 +3483,17 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="6">
+      <c r="K11" s="12"/>
+      <c r="L11" s="8">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2">
@@ -3343,17 +3510,17 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="6">
+      <c r="K12" s="12"/>
+      <c r="L12" s="8">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="2">
@@ -3370,8 +3537,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="6">
+      <c r="K13" s="12"/>
+      <c r="L13" s="8">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-algorithmization-and-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08274D45-687E-D649-A6AD-E1AB753FC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F00781-43A5-A049-9572-C2BB96115586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,6 +397,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1628,9 +1632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="157" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
+    <sheetView showGridLines="0" zoomScale="238" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1726,7 +1730,9 @@
       <c r="AA1" s="17">
         <v>45033</v>
       </c>
-      <c r="AB1" s="18"/>
+      <c r="AB1" s="17">
+        <v>45036</v>
+      </c>
       <c r="AC1" s="18"/>
       <c r="AD1" s="18" t="s">
         <v>39</v>
@@ -1814,11 +1820,13 @@
       <c r="AA2" s="19">
         <v>10</v>
       </c>
-      <c r="AB2" s="18"/>
+      <c r="AB2" s="18">
+        <v>15</v>
+      </c>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18">
         <f>SUM(O2:AC2)</f>
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1903,11 +1911,13 @@
       <c r="AA3" s="19">
         <v>10</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="18">
+        <v>-10</v>
+      </c>
       <c r="AC3" s="18"/>
       <c r="AD3" s="18">
-        <f t="shared" ref="AD3:AD15" si="0">SUM(O3:AC3)</f>
-        <v>65</v>
+        <f t="shared" ref="AD3:AD14" si="0">SUM(O3:AC3)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1992,11 +2002,13 @@
       <c r="AA4" s="19">
         <v>10</v>
       </c>
-      <c r="AB4" s="18"/>
+      <c r="AB4" s="18">
+        <v>15</v>
+      </c>
       <c r="AC4" s="18"/>
       <c r="AD4" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2081,11 +2093,13 @@
       <c r="AA5" s="19">
         <v>-15</v>
       </c>
-      <c r="AB5" s="18"/>
+      <c r="AB5" s="18">
+        <v>15</v>
+      </c>
       <c r="AC5" s="18"/>
       <c r="AD5" s="18">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2170,11 +2184,15 @@
       <c r="AA6" s="19">
         <v>10</v>
       </c>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
+      <c r="AB6" s="18">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>10</v>
+      </c>
       <c r="AD6" s="18">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2259,11 +2277,13 @@
       <c r="AA7" s="19">
         <v>10</v>
       </c>
-      <c r="AB7" s="18"/>
+      <c r="AB7" s="18">
+        <v>15</v>
+      </c>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2348,11 +2368,13 @@
       <c r="AA8" s="19">
         <v>10</v>
       </c>
-      <c r="AB8" s="18"/>
+      <c r="AB8" s="18">
+        <v>15</v>
+      </c>
       <c r="AC8" s="18"/>
       <c r="AD8" s="18">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2437,11 +2459,13 @@
       <c r="AA9" s="19">
         <v>10</v>
       </c>
-      <c r="AB9" s="18"/>
+      <c r="AB9" s="18">
+        <v>15</v>
+      </c>
       <c r="AC9" s="18"/>
       <c r="AD9" s="18">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2526,11 +2550,13 @@
       <c r="AA10" s="19">
         <v>10</v>
       </c>
-      <c r="AB10" s="18"/>
+      <c r="AB10" s="18">
+        <v>15</v>
+      </c>
       <c r="AC10" s="18"/>
       <c r="AD10" s="18">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2615,11 +2641,13 @@
       <c r="AA11" s="19">
         <v>10</v>
       </c>
-      <c r="AB11" s="18"/>
+      <c r="AB11" s="18">
+        <v>15</v>
+      </c>
       <c r="AC11" s="18"/>
       <c r="AD11" s="18">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2704,11 +2732,13 @@
       <c r="AA12" s="19">
         <v>-15</v>
       </c>
-      <c r="AB12" s="18"/>
+      <c r="AB12" s="18">
+        <v>-10</v>
+      </c>
       <c r="AC12" s="18"/>
       <c r="AD12" s="18">
         <f t="shared" si="0"/>
-        <v>-160</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2793,11 +2823,13 @@
       <c r="AA13" s="19">
         <v>10</v>
       </c>
-      <c r="AB13" s="18"/>
+      <c r="AB13" s="18">
+        <v>-10</v>
+      </c>
       <c r="AC13" s="18"/>
       <c r="AD13" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2882,11 +2914,13 @@
       <c r="AA14" s="19">
         <v>-15</v>
       </c>
-      <c r="AB14" s="18"/>
+      <c r="AB14" s="18">
+        <v>-10</v>
+      </c>
       <c r="AC14" s="18"/>
       <c r="AD14" s="18">
         <f t="shared" si="0"/>
-        <v>-160</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2946,7 +2980,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3012,15 +3046,19 @@
       <c r="F2" s="11">
         <v>10</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="11">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11">
+        <v>13</v>
+      </c>
       <c r="I2" s="11">
         <v>15</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="10">
         <f t="shared" ref="K2:K14" si="0">SUM(C2:J2)</f>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3036,15 +3074,21 @@
       <c r="D3" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="11">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11">
+        <v>12</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3090,15 +3134,19 @@
       <c r="F5" s="10">
         <v>10</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11">
+        <v>12</v>
+      </c>
       <c r="H5" s="10">
         <v>13</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11">
+        <v>15</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="10">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3120,13 +3168,15 @@
       <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>12</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3148,13 +3198,19 @@
       <c r="F7" s="10">
         <v>10</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="11">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11">
+        <v>13</v>
+      </c>
+      <c r="I7" s="11">
+        <v>15</v>
+      </c>
       <c r="J7" s="11"/>
       <c r="K7" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3173,16 +3229,22 @@
       <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="11">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11">
+        <v>13</v>
+      </c>
       <c r="I8" s="11">
         <v>15</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="10">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3205,12 +3267,14 @@
         <v>10</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <v>13</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="10">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3258,11 +3322,13 @@
       <c r="H11" s="11">
         <v>13</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11">
+        <v>15</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="10">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3299,14 +3365,20 @@
         <v>10</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="11">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11">
+        <v>12</v>
+      </c>
+      <c r="H13" s="11">
+        <v>13</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3340,11 +3412,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="176" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB12" sqref="AB12"/>
+    <sheetView showGridLines="0" zoomScale="228" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3356,7 +3428,7 @@
     <col min="27" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3438,11 +3510,14 @@
       <c r="AA1" s="33">
         <v>45034</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="39">
+        <v>45036</v>
+      </c>
+      <c r="AE1" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3524,12 +3599,15 @@
       <c r="AA2" s="34">
         <v>-15</v>
       </c>
-      <c r="AB2" s="34">
-        <f>SUM(N2:AA2)</f>
-        <v>-175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="40">
+        <v>-10</v>
+      </c>
+      <c r="AE2" s="34">
+        <f t="shared" ref="AE2:AE13" si="0">SUM(N2:AB2)</f>
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3611,12 +3689,15 @@
       <c r="AA3" s="34">
         <v>10</v>
       </c>
-      <c r="AB3" s="34">
-        <f t="shared" ref="AB3:AB13" si="0">SUM(N3:AA3)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="40">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="34">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3698,12 +3779,15 @@
       <c r="AA4" s="34">
         <v>-15</v>
       </c>
-      <c r="AB4" s="34">
+      <c r="AB4" s="40">
+        <v>-10</v>
+      </c>
+      <c r="AE4" s="34">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3785,12 +3869,15 @@
       <c r="AA5" s="34">
         <v>-15</v>
       </c>
-      <c r="AB5" s="34">
+      <c r="AB5" s="40">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3872,12 +3959,15 @@
       <c r="AA6" s="34">
         <v>-15</v>
       </c>
-      <c r="AB6" s="34">
+      <c r="AB6" s="40">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="34">
         <f t="shared" si="0"/>
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3959,12 +4049,15 @@
       <c r="AA7" s="34">
         <v>5</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="40">
+        <v>-10</v>
+      </c>
+      <c r="AE7" s="34">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4046,12 +4139,15 @@
       <c r="AA8" s="34">
         <v>10</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="34">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -4133,12 +4229,15 @@
       <c r="AA9" s="34">
         <v>5</v>
       </c>
-      <c r="AB9" s="34">
+      <c r="AB9" s="40">
+        <v>-10</v>
+      </c>
+      <c r="AE9" s="34">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -4220,12 +4319,15 @@
       <c r="AA10" s="34">
         <v>5</v>
       </c>
-      <c r="AB10" s="34">
+      <c r="AB10" s="40">
+        <v>15</v>
+      </c>
+      <c r="AE10" s="34">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -4307,12 +4409,15 @@
       <c r="AA11" s="34">
         <v>5</v>
       </c>
-      <c r="AB11" s="34">
+      <c r="AB11" s="40">
+        <v>-10</v>
+      </c>
+      <c r="AE11" s="34">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -4394,12 +4499,15 @@
       <c r="AA12" s="34">
         <v>-15</v>
       </c>
-      <c r="AB12" s="34">
+      <c r="AB12" s="40">
+        <v>-10</v>
+      </c>
+      <c r="AE12" s="34">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -4481,9 +4589,12 @@
       <c r="AA13" s="34">
         <v>-15</v>
       </c>
-      <c r="AB13" s="34">
+      <c r="AB13" s="40">
+        <v>15</v>
+      </c>
+      <c r="AE13" s="34">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4511,7 +4622,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4704,13 +4815,17 @@
       <c r="F7" s="11">
         <v>10</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="11">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11">
+        <v>10</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="15">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4735,12 +4850,16 @@
       <c r="G8" s="11">
         <v>12</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="11">
+        <v>13</v>
+      </c>
+      <c r="I8" s="11">
+        <v>15</v>
+      </c>
       <c r="J8" s="11"/>
       <c r="K8" s="15">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4759,16 +4878,20 @@
       <c r="E9" s="10">
         <v>10</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>10</v>
+      </c>
       <c r="G9" s="11">
         <v>12</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <v>13</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="15">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-algorithmization-and-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F00781-43A5-A049-9572-C2BB96115586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35A0DA-13FC-F245-998B-C01CE4826415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,10 +397,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1632,9 +1628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="238" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="223" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1729,9 @@
       <c r="AB1" s="17">
         <v>45036</v>
       </c>
-      <c r="AC1" s="18"/>
+      <c r="AC1" s="17">
+        <v>45042</v>
+      </c>
       <c r="AD1" s="18" t="s">
         <v>39</v>
       </c>
@@ -1823,10 +1821,12 @@
       <c r="AB2" s="18">
         <v>15</v>
       </c>
-      <c r="AC2" s="18"/>
+      <c r="AC2" s="18">
+        <v>15</v>
+      </c>
       <c r="AD2" s="18">
         <f>SUM(O2:AC2)</f>
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1914,10 +1914,12 @@
       <c r="AB3" s="18">
         <v>-10</v>
       </c>
-      <c r="AC3" s="18"/>
+      <c r="AC3" s="18">
+        <v>-10</v>
+      </c>
       <c r="AD3" s="18">
         <f t="shared" ref="AD3:AD14" si="0">SUM(O3:AC3)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2005,10 +2007,12 @@
       <c r="AB4" s="18">
         <v>15</v>
       </c>
-      <c r="AC4" s="18"/>
+      <c r="AC4" s="18">
+        <v>-10</v>
+      </c>
       <c r="AD4" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2096,7 +2100,9 @@
       <c r="AB5" s="18">
         <v>15</v>
       </c>
-      <c r="AC5" s="18"/>
+      <c r="AC5" s="18">
+        <v>0</v>
+      </c>
       <c r="AD5" s="18">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -2188,11 +2194,11 @@
         <v>15</v>
       </c>
       <c r="AC6" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="18">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2280,7 +2286,9 @@
       <c r="AB7" s="18">
         <v>15</v>
       </c>
-      <c r="AC7" s="18"/>
+      <c r="AC7" s="18">
+        <v>0</v>
+      </c>
       <c r="AD7" s="18">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -2371,10 +2379,12 @@
       <c r="AB8" s="18">
         <v>15</v>
       </c>
-      <c r="AC8" s="18"/>
+      <c r="AC8" s="18">
+        <v>15</v>
+      </c>
       <c r="AD8" s="18">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2462,10 +2472,12 @@
       <c r="AB9" s="18">
         <v>15</v>
       </c>
-      <c r="AC9" s="18"/>
+      <c r="AC9" s="18">
+        <v>15</v>
+      </c>
       <c r="AD9" s="18">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2553,10 +2565,12 @@
       <c r="AB10" s="18">
         <v>15</v>
       </c>
-      <c r="AC10" s="18"/>
+      <c r="AC10" s="18">
+        <v>-10</v>
+      </c>
       <c r="AD10" s="18">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2644,7 +2658,9 @@
       <c r="AB11" s="18">
         <v>15</v>
       </c>
-      <c r="AC11" s="18"/>
+      <c r="AC11" s="18">
+        <v>0</v>
+      </c>
       <c r="AD11" s="18">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -2735,10 +2751,12 @@
       <c r="AB12" s="18">
         <v>-10</v>
       </c>
-      <c r="AC12" s="18"/>
+      <c r="AC12" s="18">
+        <v>-10</v>
+      </c>
       <c r="AD12" s="18">
         <f t="shared" si="0"/>
-        <v>-170</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2826,10 +2844,12 @@
       <c r="AB13" s="18">
         <v>-10</v>
       </c>
-      <c r="AC13" s="18"/>
+      <c r="AC13" s="18">
+        <v>-10</v>
+      </c>
       <c r="AD13" s="18">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2917,10 +2937,12 @@
       <c r="AB14" s="18">
         <v>-10</v>
       </c>
-      <c r="AC14" s="18"/>
+      <c r="AC14" s="18">
+        <v>-10</v>
+      </c>
       <c r="AD14" s="18">
         <f t="shared" si="0"/>
-        <v>-170</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2979,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3266,7 +3288,9 @@
       <c r="F9" s="11">
         <v>10</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11">
+        <v>12</v>
+      </c>
       <c r="H9" s="11">
         <v>13</v>
       </c>
@@ -3274,7 +3298,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="10">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3416,7 +3440,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="228" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC11" sqref="AC11"/>
+      <selection pane="topRight" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3510,9 +3534,13 @@
       <c r="AA1" s="33">
         <v>45034</v>
       </c>
-      <c r="AB1" s="39">
+      <c r="AB1" s="17">
         <v>45036</v>
       </c>
+      <c r="AC1" s="17">
+        <v>45042</v>
+      </c>
+      <c r="AD1" s="18"/>
       <c r="AE1" s="34" t="s">
         <v>40</v>
       </c>
@@ -3599,12 +3627,16 @@
       <c r="AA2" s="34">
         <v>-15</v>
       </c>
-      <c r="AB2" s="40">
-        <v>-10</v>
-      </c>
+      <c r="AB2" s="38">
+        <v>-10</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD2" s="18"/>
       <c r="AE2" s="34">
-        <f t="shared" ref="AE2:AE13" si="0">SUM(N2:AB2)</f>
-        <v>-185</v>
+        <f>SUM(N2:AD2)</f>
+        <v>-215</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3689,12 +3721,16 @@
       <c r="AA3" s="34">
         <v>10</v>
       </c>
-      <c r="AB3" s="40">
-        <v>15</v>
-      </c>
+      <c r="AB3" s="38">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD3" s="18"/>
       <c r="AE3" s="34">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f t="shared" ref="AE3:AE13" si="0">SUM(N3:AD3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3779,12 +3815,16 @@
       <c r="AA4" s="34">
         <v>-15</v>
       </c>
-      <c r="AB4" s="40">
-        <v>-10</v>
-      </c>
+      <c r="AB4" s="38">
+        <v>-10</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD4" s="18"/>
       <c r="AE4" s="34">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3869,12 +3909,16 @@
       <c r="AA5" s="34">
         <v>-15</v>
       </c>
-      <c r="AB5" s="40">
-        <v>15</v>
-      </c>
+      <c r="AB5" s="38">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD5" s="18"/>
       <c r="AE5" s="34">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3959,12 +4003,16 @@
       <c r="AA6" s="34">
         <v>-15</v>
       </c>
-      <c r="AB6" s="40">
-        <v>15</v>
-      </c>
+      <c r="AB6" s="38">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD6" s="18"/>
       <c r="AE6" s="34">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4049,12 +4097,16 @@
       <c r="AA7" s="34">
         <v>5</v>
       </c>
-      <c r="AB7" s="40">
-        <v>-10</v>
-      </c>
+      <c r="AB7" s="38">
+        <v>-10</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD7" s="18"/>
       <c r="AE7" s="34">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4139,12 +4191,16 @@
       <c r="AA8" s="34">
         <v>10</v>
       </c>
-      <c r="AB8" s="40">
+      <c r="AB8" s="38">
         <v>0</v>
       </c>
+      <c r="AC8" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD8" s="18"/>
       <c r="AE8" s="34">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4229,12 +4285,16 @@
       <c r="AA9" s="34">
         <v>5</v>
       </c>
-      <c r="AB9" s="40">
-        <v>-10</v>
-      </c>
+      <c r="AB9" s="38">
+        <v>-10</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD9" s="18"/>
       <c r="AE9" s="34">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4319,12 +4379,16 @@
       <c r="AA10" s="34">
         <v>5</v>
       </c>
-      <c r="AB10" s="40">
-        <v>15</v>
-      </c>
+      <c r="AB10" s="38">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD10" s="18"/>
       <c r="AE10" s="34">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4409,12 +4473,16 @@
       <c r="AA11" s="34">
         <v>5</v>
       </c>
-      <c r="AB11" s="40">
-        <v>-10</v>
-      </c>
+      <c r="AB11" s="38">
+        <v>-10</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD11" s="18"/>
       <c r="AE11" s="34">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4499,12 +4567,16 @@
       <c r="AA12" s="34">
         <v>-15</v>
       </c>
-      <c r="AB12" s="40">
-        <v>-10</v>
-      </c>
+      <c r="AB12" s="38">
+        <v>-10</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD12" s="18"/>
       <c r="AE12" s="34">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4589,12 +4661,16 @@
       <c r="AA13" s="34">
         <v>-15</v>
       </c>
-      <c r="AB13" s="40">
-        <v>15</v>
-      </c>
+      <c r="AB13" s="38">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="18">
+        <v>-30</v>
+      </c>
+      <c r="AD13" s="18"/>
       <c r="AE13" s="34">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4621,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" zoomScale="171" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4707,17 +4783,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="11">
         <v>12</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11">
+        <v>13</v>
+      </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="15">
         <f t="shared" ref="K3:K13" si="0">SUM(C3:J3)</f>
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4740,12 +4818,14 @@
         <v>10</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11">
+        <v>13</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="15">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4980,12 +5060,14 @@
       <c r="G12" s="11">
         <v>5</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11">
+        <v>13</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="15">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5010,12 +5092,16 @@
       <c r="G13" s="11">
         <v>10</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="11">
+        <v>13</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="15">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-algorithmization-and-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35A0DA-13FC-F245-998B-C01CE4826415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F590A1-CC50-CD41-A09E-14786996ACAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -3001,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4697,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5063,11 +5063,13 @@
       <c r="H12" s="11">
         <v>13</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11">
+        <v>15</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="15">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_СО-ИП-21-1.xlsx
+++ b/Успеваемость_СО-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-algorithmization-and-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F590A1-CC50-CD41-A09E-14786996ACAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD51BCE-6069-A743-8A2B-7760CB887658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -159,12 +159,33 @@
   <si>
     <t>Рейтинг</t>
   </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Экзамен (20)</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Удовлетворительно</t>
+  </si>
+  <si>
+    <t>Балл</t>
+  </si>
+  <si>
+    <t>Не аттестован</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -175,11 +196,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -202,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -285,19 +314,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right/>
@@ -309,11 +325,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,13 +383,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -375,7 +408,7 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -393,10 +426,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1626,11 +1683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="223" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1644,1338 +1701,1367 @@
     <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="13">
         <v>44942</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="13">
         <v>44944</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="13">
         <v>44949</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="13">
         <v>44952</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="13">
         <v>44956</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="13">
         <v>44958</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="13">
         <v>44963</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="13">
         <v>44966</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="13">
         <v>44970</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="13">
         <v>44972</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="18">
         <v>44977</v>
       </c>
-      <c r="N1" s="16">
+      <c r="N1" s="13">
         <v>44984</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="13">
         <v>44986</v>
       </c>
-      <c r="P1" s="16">
+      <c r="P1" s="13">
         <v>44991</v>
       </c>
-      <c r="Q1" s="16">
+      <c r="Q1" s="13">
         <v>44994</v>
       </c>
-      <c r="R1" s="16">
+      <c r="R1" s="13">
         <v>44998</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1" s="13">
         <v>45000</v>
       </c>
-      <c r="T1" s="16">
+      <c r="T1" s="13">
         <v>45008</v>
       </c>
-      <c r="U1" s="17">
+      <c r="U1" s="14">
         <v>45012</v>
       </c>
-      <c r="V1" s="16">
+      <c r="V1" s="13">
         <v>45014</v>
       </c>
-      <c r="W1" s="16">
+      <c r="W1" s="13">
         <v>45019</v>
       </c>
-      <c r="X1" s="16">
+      <c r="X1" s="13">
         <v>45022</v>
       </c>
-      <c r="Y1" s="16">
+      <c r="Y1" s="13">
         <v>45026</v>
       </c>
-      <c r="Z1" s="16">
+      <c r="Z1" s="13">
         <v>45028</v>
       </c>
-      <c r="AA1" s="17">
+      <c r="AA1" s="14">
         <v>45033</v>
       </c>
-      <c r="AB1" s="17">
+      <c r="AB1" s="14">
         <v>45036</v>
       </c>
-      <c r="AC1" s="17">
+      <c r="AC1" s="14">
         <v>45042</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="AE1" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="19">
-        <v>15</v>
-      </c>
-      <c r="P2" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>15</v>
-      </c>
-      <c r="R2" s="19">
-        <v>10</v>
-      </c>
-      <c r="S2" s="19">
-        <v>15</v>
-      </c>
-      <c r="T2" s="19">
-        <v>15</v>
-      </c>
-      <c r="U2" s="18">
+      <c r="C2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="16">
+        <v>15</v>
+      </c>
+      <c r="P2" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>15</v>
+      </c>
+      <c r="R2" s="16">
+        <v>10</v>
+      </c>
+      <c r="S2" s="16">
+        <v>15</v>
+      </c>
+      <c r="T2" s="16">
+        <v>15</v>
+      </c>
+      <c r="U2" s="15">
         <v>0</v>
       </c>
-      <c r="V2" s="19">
-        <v>15</v>
-      </c>
-      <c r="W2" s="19">
+      <c r="V2" s="16">
+        <v>15</v>
+      </c>
+      <c r="W2" s="16">
         <v>0</v>
       </c>
-      <c r="X2" s="19">
+      <c r="X2" s="16">
         <v>0</v>
       </c>
-      <c r="Y2" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="25">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="18">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="18">
+      <c r="Y2" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="15">
         <f>SUM(O2:AC2)</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="AE2" s="31"/>
+    </row>
+    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="19">
-        <v>15</v>
-      </c>
-      <c r="P3" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>15</v>
-      </c>
-      <c r="R3" s="19">
-        <v>-15</v>
-      </c>
-      <c r="S3" s="19">
-        <v>15</v>
-      </c>
-      <c r="T3" s="19">
-        <v>15</v>
-      </c>
-      <c r="U3" s="18">
-        <v>10</v>
-      </c>
-      <c r="V3" s="19">
-        <v>-10</v>
-      </c>
-      <c r="W3" s="19">
-        <v>10</v>
-      </c>
-      <c r="X3" s="19">
-        <v>-10</v>
-      </c>
-      <c r="Y3" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="25">
-        <v>-10</v>
-      </c>
-      <c r="AA3" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB3" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AD3" s="18">
+      <c r="C3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16">
+        <v>15</v>
+      </c>
+      <c r="P3" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>15</v>
+      </c>
+      <c r="R3" s="16">
+        <v>-15</v>
+      </c>
+      <c r="S3" s="16">
+        <v>15</v>
+      </c>
+      <c r="T3" s="16">
+        <v>15</v>
+      </c>
+      <c r="U3" s="15">
+        <v>10</v>
+      </c>
+      <c r="V3" s="16">
+        <v>-10</v>
+      </c>
+      <c r="W3" s="16">
+        <v>10</v>
+      </c>
+      <c r="X3" s="16">
+        <v>-10</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>-10</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AD3" s="15">
         <f t="shared" ref="AD3:AD14" si="0">SUM(O3:AC3)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="AE3" s="31"/>
+    </row>
+    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="19">
+      <c r="C4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="16">
         <v>0</v>
       </c>
-      <c r="P4" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>15</v>
-      </c>
-      <c r="R4" s="19">
-        <v>-15</v>
-      </c>
-      <c r="S4" s="19">
-        <v>-10</v>
-      </c>
-      <c r="T4" s="19">
-        <v>15</v>
-      </c>
-      <c r="U4" s="18">
-        <v>10</v>
-      </c>
-      <c r="V4" s="19">
-        <v>-10</v>
-      </c>
-      <c r="W4" s="19">
-        <v>-15</v>
-      </c>
-      <c r="X4" s="19">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="25">
-        <v>-15</v>
-      </c>
-      <c r="Z4" s="25">
-        <v>-10</v>
-      </c>
-      <c r="AA4" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AD4" s="18">
+      <c r="P4" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>15</v>
+      </c>
+      <c r="R4" s="16">
+        <v>-15</v>
+      </c>
+      <c r="S4" s="16">
+        <v>-10</v>
+      </c>
+      <c r="T4" s="16">
+        <v>15</v>
+      </c>
+      <c r="U4" s="15">
+        <v>10</v>
+      </c>
+      <c r="V4" s="16">
+        <v>-10</v>
+      </c>
+      <c r="W4" s="16">
+        <v>-15</v>
+      </c>
+      <c r="X4" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>-15</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>-10</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AD4" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="AE4" s="31"/>
+    </row>
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="19">
-        <v>15</v>
-      </c>
-      <c r="P5" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>15</v>
-      </c>
-      <c r="R5" s="19">
-        <v>10</v>
-      </c>
-      <c r="S5" s="19">
-        <v>15</v>
-      </c>
-      <c r="T5" s="19">
-        <v>15</v>
-      </c>
-      <c r="U5" s="18">
-        <v>10</v>
-      </c>
-      <c r="V5" s="19">
-        <v>15</v>
-      </c>
-      <c r="W5" s="19">
-        <v>10</v>
-      </c>
-      <c r="X5" s="19">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="25">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>-15</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="18">
+      <c r="C5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="16">
+        <v>15</v>
+      </c>
+      <c r="P5" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>15</v>
+      </c>
+      <c r="R5" s="16">
+        <v>10</v>
+      </c>
+      <c r="S5" s="16">
+        <v>15</v>
+      </c>
+      <c r="T5" s="16">
+        <v>15</v>
+      </c>
+      <c r="U5" s="15">
+        <v>10</v>
+      </c>
+      <c r="V5" s="16">
+        <v>15</v>
+      </c>
+      <c r="W5" s="16">
+        <v>10</v>
+      </c>
+      <c r="X5" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>-15</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="15">
         <v>0</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="15">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="AE5" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="19">
-        <v>15</v>
-      </c>
-      <c r="P6" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>15</v>
-      </c>
-      <c r="R6" s="19">
-        <v>10</v>
-      </c>
-      <c r="S6" s="19">
-        <v>15</v>
-      </c>
-      <c r="T6" s="19">
-        <v>15</v>
-      </c>
-      <c r="U6" s="18">
-        <v>10</v>
-      </c>
-      <c r="V6" s="19">
-        <v>15</v>
-      </c>
-      <c r="W6" s="19">
-        <v>10</v>
-      </c>
-      <c r="X6" s="19">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="25">
-        <v>15</v>
-      </c>
-      <c r="AA6" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC6" s="18">
+      <c r="C6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="16">
+        <v>15</v>
+      </c>
+      <c r="P6" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>15</v>
+      </c>
+      <c r="R6" s="16">
+        <v>10</v>
+      </c>
+      <c r="S6" s="16">
+        <v>15</v>
+      </c>
+      <c r="T6" s="16">
+        <v>15</v>
+      </c>
+      <c r="U6" s="15">
+        <v>10</v>
+      </c>
+      <c r="V6" s="16">
+        <v>15</v>
+      </c>
+      <c r="W6" s="16">
+        <v>10</v>
+      </c>
+      <c r="X6" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="15">
         <v>0</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="15">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="AE6" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="19">
-        <v>15</v>
-      </c>
-      <c r="P7" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>15</v>
-      </c>
-      <c r="R7" s="19">
-        <v>10</v>
-      </c>
-      <c r="S7" s="19">
+      <c r="C7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="16">
+        <v>15</v>
+      </c>
+      <c r="P7" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>15</v>
+      </c>
+      <c r="R7" s="16">
+        <v>10</v>
+      </c>
+      <c r="S7" s="16">
         <v>0</v>
       </c>
-      <c r="T7" s="19">
-        <v>15</v>
-      </c>
-      <c r="U7" s="18">
-        <v>10</v>
-      </c>
-      <c r="V7" s="19">
+      <c r="T7" s="16">
+        <v>15</v>
+      </c>
+      <c r="U7" s="15">
+        <v>10</v>
+      </c>
+      <c r="V7" s="16">
         <v>0</v>
       </c>
-      <c r="W7" s="19">
-        <v>10</v>
-      </c>
-      <c r="X7" s="19">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="25">
-        <v>15</v>
-      </c>
-      <c r="AA7" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC7" s="18">
+      <c r="W7" s="16">
+        <v>10</v>
+      </c>
+      <c r="X7" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="15">
         <v>0</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="15">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="AE7" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="19">
-        <v>15</v>
-      </c>
-      <c r="P8" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>15</v>
-      </c>
-      <c r="R8" s="19">
-        <v>10</v>
-      </c>
-      <c r="S8" s="19">
-        <v>15</v>
-      </c>
-      <c r="T8" s="19">
-        <v>15</v>
-      </c>
-      <c r="U8" s="18">
+      <c r="B8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="16">
+        <v>15</v>
+      </c>
+      <c r="P8" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>15</v>
+      </c>
+      <c r="R8" s="16">
+        <v>10</v>
+      </c>
+      <c r="S8" s="16">
+        <v>15</v>
+      </c>
+      <c r="T8" s="16">
+        <v>15</v>
+      </c>
+      <c r="U8" s="15">
         <v>0</v>
       </c>
-      <c r="V8" s="19">
-        <v>15</v>
-      </c>
-      <c r="W8" s="19">
+      <c r="V8" s="16">
+        <v>15</v>
+      </c>
+      <c r="W8" s="16">
         <v>0</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="16">
         <v>0</v>
       </c>
-      <c r="Y8" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="25">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC8" s="18">
-        <v>15</v>
-      </c>
-      <c r="AD8" s="18">
+      <c r="Y8" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>15</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>15</v>
+      </c>
+      <c r="AD8" s="15">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="AE8" s="31"/>
+    </row>
+    <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="19">
-        <v>15</v>
-      </c>
-      <c r="P9" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>15</v>
-      </c>
-      <c r="R9" s="19">
-        <v>10</v>
-      </c>
-      <c r="S9" s="19">
-        <v>15</v>
-      </c>
-      <c r="T9" s="19">
-        <v>15</v>
-      </c>
-      <c r="U9" s="18">
-        <v>10</v>
-      </c>
-      <c r="V9" s="19">
-        <v>15</v>
-      </c>
-      <c r="W9" s="19">
-        <v>10</v>
-      </c>
-      <c r="X9" s="19">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="25">
-        <v>15</v>
-      </c>
-      <c r="AA9" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC9" s="18">
-        <v>15</v>
-      </c>
-      <c r="AD9" s="18">
+      <c r="C9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="16">
+        <v>15</v>
+      </c>
+      <c r="P9" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>15</v>
+      </c>
+      <c r="R9" s="16">
+        <v>10</v>
+      </c>
+      <c r="S9" s="16">
+        <v>15</v>
+      </c>
+      <c r="T9" s="16">
+        <v>15</v>
+      </c>
+      <c r="U9" s="15">
+        <v>10</v>
+      </c>
+      <c r="V9" s="16">
+        <v>15</v>
+      </c>
+      <c r="W9" s="16">
+        <v>10</v>
+      </c>
+      <c r="X9" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>15</v>
+      </c>
+      <c r="AD9" s="15">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="AE9" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="19">
-        <v>15</v>
-      </c>
-      <c r="P10" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>-10</v>
-      </c>
-      <c r="R10" s="19">
+      <c r="C10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="16">
+        <v>15</v>
+      </c>
+      <c r="P10" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>-10</v>
+      </c>
+      <c r="R10" s="16">
         <v>0</v>
       </c>
-      <c r="S10" s="19">
-        <v>15</v>
-      </c>
-      <c r="T10" s="19">
-        <v>-10</v>
-      </c>
-      <c r="U10" s="18">
-        <v>10</v>
-      </c>
-      <c r="V10" s="19">
+      <c r="S10" s="16">
+        <v>15</v>
+      </c>
+      <c r="T10" s="16">
+        <v>-10</v>
+      </c>
+      <c r="U10" s="15">
+        <v>10</v>
+      </c>
+      <c r="V10" s="16">
         <v>0</v>
       </c>
-      <c r="W10" s="19">
-        <v>-15</v>
-      </c>
-      <c r="X10" s="19">
-        <v>15</v>
-      </c>
-      <c r="Y10" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="25">
-        <v>-10</v>
-      </c>
-      <c r="AA10" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC10" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AD10" s="18">
+      <c r="W10" s="16">
+        <v>-15</v>
+      </c>
+      <c r="X10" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>-10</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AD10" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="AE10" s="31"/>
+    </row>
+    <row r="11" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="19">
-        <v>15</v>
-      </c>
-      <c r="P11" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>15</v>
-      </c>
-      <c r="R11" s="19">
-        <v>10</v>
-      </c>
-      <c r="S11" s="19">
-        <v>15</v>
-      </c>
-      <c r="T11" s="19">
-        <v>15</v>
-      </c>
-      <c r="U11" s="18">
-        <v>10</v>
-      </c>
-      <c r="V11" s="19">
-        <v>15</v>
-      </c>
-      <c r="W11" s="19">
-        <v>10</v>
-      </c>
-      <c r="X11" s="19">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="25">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="25">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC11" s="18">
+      <c r="C11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="16">
+        <v>15</v>
+      </c>
+      <c r="P11" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>15</v>
+      </c>
+      <c r="R11" s="16">
+        <v>10</v>
+      </c>
+      <c r="S11" s="16">
+        <v>15</v>
+      </c>
+      <c r="T11" s="16">
+        <v>15</v>
+      </c>
+      <c r="U11" s="15">
+        <v>10</v>
+      </c>
+      <c r="V11" s="16">
+        <v>15</v>
+      </c>
+      <c r="W11" s="16">
+        <v>10</v>
+      </c>
+      <c r="X11" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="15">
         <v>0</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD11" s="15">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="AE11" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="19">
-        <v>-10</v>
-      </c>
-      <c r="P12" s="19">
-        <v>-15</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>-10</v>
-      </c>
-      <c r="R12" s="19">
-        <v>-15</v>
-      </c>
-      <c r="S12" s="19">
-        <v>-10</v>
-      </c>
-      <c r="T12" s="19">
-        <v>-10</v>
-      </c>
-      <c r="U12" s="18">
-        <v>-15</v>
-      </c>
-      <c r="V12" s="19">
-        <v>-10</v>
-      </c>
-      <c r="W12" s="19">
-        <v>-15</v>
-      </c>
-      <c r="X12" s="19">
-        <v>-10</v>
-      </c>
-      <c r="Y12" s="25">
-        <v>-15</v>
-      </c>
-      <c r="Z12" s="25">
-        <v>-10</v>
-      </c>
-      <c r="AA12" s="19">
-        <v>-15</v>
-      </c>
-      <c r="AB12" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AC12" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AD12" s="18">
+      <c r="C12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="16">
+        <v>-10</v>
+      </c>
+      <c r="P12" s="16">
+        <v>-15</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>-10</v>
+      </c>
+      <c r="R12" s="16">
+        <v>-15</v>
+      </c>
+      <c r="S12" s="16">
+        <v>-10</v>
+      </c>
+      <c r="T12" s="16">
+        <v>-10</v>
+      </c>
+      <c r="U12" s="15">
+        <v>-15</v>
+      </c>
+      <c r="V12" s="16">
+        <v>-10</v>
+      </c>
+      <c r="W12" s="16">
+        <v>-15</v>
+      </c>
+      <c r="X12" s="16">
+        <v>-10</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>-15</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>-10</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>-15</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AD12" s="15">
         <f t="shared" si="0"/>
         <v>-180</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="AE12" s="31"/>
+    </row>
+    <row r="13" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="19">
-        <v>-10</v>
-      </c>
-      <c r="P13" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>15</v>
-      </c>
-      <c r="R13" s="19">
-        <v>10</v>
-      </c>
-      <c r="S13" s="19">
-        <v>15</v>
-      </c>
-      <c r="T13" s="19">
-        <v>15</v>
-      </c>
-      <c r="U13" s="18">
-        <v>-15</v>
-      </c>
-      <c r="V13" s="19">
-        <v>15</v>
-      </c>
-      <c r="W13" s="19">
-        <v>10</v>
-      </c>
-      <c r="X13" s="19">
-        <v>-10</v>
-      </c>
-      <c r="Y13" s="25">
+      <c r="B13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="16">
+        <v>-10</v>
+      </c>
+      <c r="P13" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>15</v>
+      </c>
+      <c r="R13" s="16">
+        <v>10</v>
+      </c>
+      <c r="S13" s="16">
+        <v>15</v>
+      </c>
+      <c r="T13" s="16">
+        <v>15</v>
+      </c>
+      <c r="U13" s="15">
+        <v>-15</v>
+      </c>
+      <c r="V13" s="16">
+        <v>15</v>
+      </c>
+      <c r="W13" s="16">
+        <v>10</v>
+      </c>
+      <c r="X13" s="16">
+        <v>-10</v>
+      </c>
+      <c r="Y13" s="22">
         <v>0</v>
       </c>
-      <c r="Z13" s="25">
-        <v>15</v>
-      </c>
-      <c r="AA13" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AC13" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AD13" s="18">
+      <c r="Z13" s="22">
+        <v>15</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AD13" s="15">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="AE13" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="19">
-        <v>-10</v>
-      </c>
-      <c r="P14" s="19">
-        <v>-15</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>-10</v>
-      </c>
-      <c r="R14" s="19">
-        <v>-15</v>
-      </c>
-      <c r="S14" s="19">
-        <v>-10</v>
-      </c>
-      <c r="T14" s="19">
-        <v>-10</v>
-      </c>
-      <c r="U14" s="18">
-        <v>-15</v>
-      </c>
-      <c r="V14" s="19">
-        <v>-10</v>
-      </c>
-      <c r="W14" s="19">
-        <v>-15</v>
-      </c>
-      <c r="X14" s="19">
-        <v>-10</v>
-      </c>
-      <c r="Y14" s="25">
-        <v>-15</v>
-      </c>
-      <c r="Z14" s="25">
-        <v>-10</v>
-      </c>
-      <c r="AA14" s="19">
-        <v>-15</v>
-      </c>
-      <c r="AB14" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AC14" s="18">
-        <v>-10</v>
-      </c>
-      <c r="AD14" s="18">
+      <c r="C14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="16">
+        <v>-10</v>
+      </c>
+      <c r="P14" s="16">
+        <v>-15</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>-10</v>
+      </c>
+      <c r="R14" s="16">
+        <v>-15</v>
+      </c>
+      <c r="S14" s="16">
+        <v>-10</v>
+      </c>
+      <c r="T14" s="16">
+        <v>-10</v>
+      </c>
+      <c r="U14" s="15">
+        <v>-15</v>
+      </c>
+      <c r="V14" s="16">
+        <v>-10</v>
+      </c>
+      <c r="W14" s="16">
+        <v>-15</v>
+      </c>
+      <c r="X14" s="16">
+        <v>-10</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>-15</v>
+      </c>
+      <c r="Z14" s="22">
+        <v>-10</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>-15</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AD14" s="15">
         <f t="shared" si="0"/>
         <v>-180</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
+      <c r="AE14" s="31"/>
+    </row>
+    <row r="15" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="31"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:T15">
@@ -2999,22 +3085,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" zoomScale="193" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
-    <col min="3" max="11" width="9.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3042,14 +3130,17 @@
       <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3078,12 +3169,14 @@
         <v>15</v>
       </c>
       <c r="J2" s="11"/>
-      <c r="K2" s="10">
-        <f t="shared" ref="K2:K14" si="0">SUM(C2:J2)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="37">
+        <v>91</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3107,13 +3200,18 @@
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="11">
+        <v>10</v>
+      </c>
+      <c r="K3" s="37">
+        <f t="shared" ref="K3:K14" si="0">SUM(C3:J3)</f>
+        <v>62</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3131,13 +3229,17 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="11">
+        <v>60</v>
+      </c>
+      <c r="K4" s="37">
+        <v>76</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3165,13 +3267,17 @@
       <c r="I5" s="11">
         <v>15</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="11">
+        <v>10</v>
+      </c>
+      <c r="K5" s="37">
+        <v>99</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3193,15 +3299,21 @@
       <c r="G6" s="11">
         <v>12</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11">
+        <v>13</v>
+      </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="11">
+        <v>10</v>
+      </c>
+      <c r="K6" s="37">
+        <v>91</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3229,13 +3341,18 @@
       <c r="I7" s="11">
         <v>15</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10">
+      <c r="J7" s="11">
+        <v>20</v>
+      </c>
+      <c r="K7" s="37">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3264,12 +3381,14 @@
         <v>15</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="10">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="37">
+        <v>91</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3295,13 +3414,17 @@
         <v>13</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="11">
+        <v>20</v>
+      </c>
+      <c r="K9" s="37">
+        <v>91</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3317,13 +3440,17 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="11">
+        <v>60</v>
+      </c>
+      <c r="K10" s="37">
+        <v>76</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3349,13 +3476,17 @@
       <c r="I11" s="11">
         <v>15</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="37">
+        <v>91</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3370,12 +3501,15 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="10">
+      <c r="K12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3399,30 +3533,53 @@
         <v>13</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="11">
+        <v>20</v>
+      </c>
+      <c r="K13" s="37">
+        <v>76</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10">
+      <c r="C14" s="11">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11">
+        <v>12</v>
+      </c>
+      <c r="H14" s="11">
+        <v>13</v>
+      </c>
+      <c r="I14" s="11">
+        <v>15</v>
+      </c>
+      <c r="J14" s="11">
+        <v>15</v>
+      </c>
+      <c r="K14" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3436,11 +3593,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="228" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB12" sqref="AB12"/>
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3452,100 +3609,102 @@
     <col min="27" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="25">
         <v>44943</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="25">
         <v>44944</v>
       </c>
-      <c r="E1" s="28">
+      <c r="E1" s="25">
         <v>44950</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="25">
         <v>44952</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="25">
         <v>44957</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="25">
         <v>44958</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="25">
         <v>44964</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="25">
         <v>44966</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="25">
         <v>44971</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="25">
         <v>44972</v>
       </c>
       <c r="M1" s="2">
         <v>44978</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="25">
         <v>44985</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="25">
         <v>44986</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="25">
         <v>44992</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="25">
         <v>44994</v>
       </c>
-      <c r="R1" s="29">
+      <c r="R1" s="26">
         <v>44999</v>
       </c>
-      <c r="S1" s="30">
+      <c r="S1" s="27">
         <v>45000</v>
       </c>
-      <c r="T1" s="30">
+      <c r="T1" s="27">
         <v>45006</v>
       </c>
-      <c r="U1" s="30">
+      <c r="U1" s="27">
         <v>45008</v>
       </c>
-      <c r="V1" s="30">
+      <c r="V1" s="27">
         <v>45013</v>
       </c>
-      <c r="W1" s="30">
+      <c r="W1" s="27">
         <v>45014</v>
       </c>
-      <c r="X1" s="31">
+      <c r="X1" s="28">
         <v>45020</v>
       </c>
-      <c r="Y1" s="32">
+      <c r="Y1" s="29">
         <v>45022</v>
       </c>
-      <c r="Z1" s="33">
+      <c r="Z1" s="30">
         <v>45028</v>
       </c>
-      <c r="AA1" s="33">
+      <c r="AA1" s="30">
         <v>45034</v>
       </c>
-      <c r="AB1" s="17">
+      <c r="AB1" s="14">
         <v>45036</v>
       </c>
-      <c r="AC1" s="17">
+      <c r="AC1" s="14">
         <v>45042</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="34" t="s">
+      <c r="AD1" s="14">
+        <v>45048</v>
+      </c>
+      <c r="AE1" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3597,49 +3756,51 @@
       <c r="Q2" s="10">
         <v>-10</v>
       </c>
-      <c r="R2" s="35">
-        <v>-15</v>
-      </c>
-      <c r="S2" s="36">
-        <v>-10</v>
-      </c>
-      <c r="T2" s="36">
-        <v>-15</v>
-      </c>
-      <c r="U2" s="36">
-        <v>-10</v>
-      </c>
-      <c r="V2" s="36">
-        <v>-15</v>
-      </c>
-      <c r="W2" s="36">
-        <v>-10</v>
-      </c>
-      <c r="X2" s="37">
-        <v>-15</v>
-      </c>
-      <c r="Y2" s="38">
-        <v>-10</v>
-      </c>
-      <c r="Z2" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AA2" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AB2" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AC2" s="18">
+      <c r="R2" s="32">
+        <v>-15</v>
+      </c>
+      <c r="S2" s="33">
+        <v>-10</v>
+      </c>
+      <c r="T2" s="33">
+        <v>-15</v>
+      </c>
+      <c r="U2" s="33">
+        <v>-10</v>
+      </c>
+      <c r="V2" s="33">
+        <v>-15</v>
+      </c>
+      <c r="W2" s="33">
+        <v>-10</v>
+      </c>
+      <c r="X2" s="34">
+        <v>-15</v>
+      </c>
+      <c r="Y2" s="35">
+        <v>-10</v>
+      </c>
+      <c r="Z2" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AA2" s="31">
+        <v>-15</v>
+      </c>
+      <c r="AB2" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AC2" s="15">
         <v>-30</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="34">
+      <c r="AD2" s="15">
+        <v>-15</v>
+      </c>
+      <c r="AE2" s="31">
         <f>SUM(N2:AD2)</f>
-        <v>-215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3691,49 +3852,51 @@
       <c r="Q3" s="10">
         <v>-10</v>
       </c>
-      <c r="R3" s="35">
-        <v>10</v>
-      </c>
-      <c r="S3" s="36">
-        <v>15</v>
-      </c>
-      <c r="T3" s="36">
-        <v>-15</v>
-      </c>
-      <c r="U3" s="36">
-        <v>-10</v>
-      </c>
-      <c r="V3" s="36">
-        <v>10</v>
-      </c>
-      <c r="W3" s="36">
-        <v>15</v>
-      </c>
-      <c r="X3" s="37">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="38">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AA3" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="18">
+      <c r="R3" s="32">
+        <v>10</v>
+      </c>
+      <c r="S3" s="33">
+        <v>15</v>
+      </c>
+      <c r="T3" s="33">
+        <v>-15</v>
+      </c>
+      <c r="U3" s="33">
+        <v>-10</v>
+      </c>
+      <c r="V3" s="33">
+        <v>10</v>
+      </c>
+      <c r="W3" s="33">
+        <v>15</v>
+      </c>
+      <c r="X3" s="34">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="35">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AA3" s="31">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="35">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="15">
         <v>-30</v>
       </c>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="34">
+      <c r="AD3" s="15">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="31">
         <f t="shared" ref="AE3:AE13" si="0">SUM(N3:AD3)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3785,49 +3948,51 @@
       <c r="Q4" s="10">
         <v>15</v>
       </c>
-      <c r="R4" s="35">
-        <v>10</v>
-      </c>
-      <c r="S4" s="36">
-        <v>15</v>
-      </c>
-      <c r="T4" s="36">
-        <v>10</v>
-      </c>
-      <c r="U4" s="36">
-        <v>15</v>
-      </c>
-      <c r="V4" s="36">
-        <v>-15</v>
-      </c>
-      <c r="W4" s="36">
-        <v>15</v>
-      </c>
-      <c r="X4" s="37">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="38">
+      <c r="R4" s="32">
+        <v>10</v>
+      </c>
+      <c r="S4" s="33">
+        <v>15</v>
+      </c>
+      <c r="T4" s="33">
+        <v>10</v>
+      </c>
+      <c r="U4" s="33">
+        <v>15</v>
+      </c>
+      <c r="V4" s="33">
+        <v>-15</v>
+      </c>
+      <c r="W4" s="33">
+        <v>15</v>
+      </c>
+      <c r="X4" s="34">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="35">
         <v>0</v>
       </c>
-      <c r="Z4" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AA4" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AB4" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AC4" s="18">
+      <c r="Z4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AC4" s="15">
         <v>-30</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="34">
+      <c r="AD4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="31">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3879,49 +4044,51 @@
       <c r="Q5" s="10">
         <v>15</v>
       </c>
-      <c r="R5" s="35">
-        <v>-15</v>
-      </c>
-      <c r="S5" s="36">
-        <v>15</v>
-      </c>
-      <c r="T5" s="36">
-        <v>-15</v>
-      </c>
-      <c r="U5" s="36">
-        <v>-10</v>
-      </c>
-      <c r="V5" s="36">
-        <v>10</v>
-      </c>
-      <c r="W5" s="36">
-        <v>15</v>
-      </c>
-      <c r="X5" s="37">
-        <v>-15</v>
-      </c>
-      <c r="Y5" s="38">
-        <v>-10</v>
-      </c>
-      <c r="Z5" s="38">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AB5" s="38">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="18">
+      <c r="R5" s="32">
+        <v>-15</v>
+      </c>
+      <c r="S5" s="33">
+        <v>15</v>
+      </c>
+      <c r="T5" s="33">
+        <v>-15</v>
+      </c>
+      <c r="U5" s="33">
+        <v>-10</v>
+      </c>
+      <c r="V5" s="33">
+        <v>10</v>
+      </c>
+      <c r="W5" s="33">
+        <v>15</v>
+      </c>
+      <c r="X5" s="34">
+        <v>-15</v>
+      </c>
+      <c r="Y5" s="35">
+        <v>-10</v>
+      </c>
+      <c r="Z5" s="35">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>-15</v>
+      </c>
+      <c r="AB5" s="35">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="15">
         <v>-30</v>
       </c>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="34">
+      <c r="AD5" s="15">
+        <v>-15</v>
+      </c>
+      <c r="AE5" s="31">
         <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3973,49 +4140,51 @@
       <c r="Q6" s="10">
         <v>15</v>
       </c>
-      <c r="R6" s="35">
-        <v>-15</v>
-      </c>
-      <c r="S6" s="36">
-        <v>15</v>
-      </c>
-      <c r="T6" s="36">
-        <v>10</v>
-      </c>
-      <c r="U6" s="36">
-        <v>-10</v>
-      </c>
-      <c r="V6" s="36">
-        <v>-15</v>
-      </c>
-      <c r="W6" s="36">
-        <v>15</v>
-      </c>
-      <c r="X6" s="37">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="38">
-        <v>-10</v>
-      </c>
-      <c r="Z6" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AA6" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AB6" s="38">
-        <v>15</v>
-      </c>
-      <c r="AC6" s="18">
+      <c r="R6" s="32">
+        <v>-15</v>
+      </c>
+      <c r="S6" s="33">
+        <v>15</v>
+      </c>
+      <c r="T6" s="33">
+        <v>10</v>
+      </c>
+      <c r="U6" s="33">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="33">
+        <v>-15</v>
+      </c>
+      <c r="W6" s="33">
+        <v>15</v>
+      </c>
+      <c r="X6" s="34">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="35">
+        <v>-10</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>-15</v>
+      </c>
+      <c r="AB6" s="35">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="15">
         <v>-30</v>
       </c>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="34">
+      <c r="AD6" s="15">
+        <v>-15</v>
+      </c>
+      <c r="AE6" s="31">
         <f t="shared" si="0"/>
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -4067,49 +4236,51 @@
       <c r="Q7" s="10">
         <v>15</v>
       </c>
-      <c r="R7" s="35">
-        <v>10</v>
-      </c>
-      <c r="S7" s="36">
+      <c r="R7" s="32">
+        <v>10</v>
+      </c>
+      <c r="S7" s="33">
         <v>0</v>
       </c>
-      <c r="T7" s="36">
-        <v>10</v>
-      </c>
-      <c r="U7" s="36">
-        <v>15</v>
-      </c>
-      <c r="V7" s="36">
-        <v>-15</v>
-      </c>
-      <c r="W7" s="36">
-        <v>15</v>
-      </c>
-      <c r="X7" s="37">
+      <c r="T7" s="33">
+        <v>10</v>
+      </c>
+      <c r="U7" s="33">
+        <v>15</v>
+      </c>
+      <c r="V7" s="33">
+        <v>-15</v>
+      </c>
+      <c r="W7" s="33">
+        <v>15</v>
+      </c>
+      <c r="X7" s="34">
         <v>0</v>
       </c>
-      <c r="Y7" s="38">
-        <v>-10</v>
-      </c>
-      <c r="Z7" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AA7" s="34">
+      <c r="Y7" s="35">
+        <v>-10</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AA7" s="31">
         <v>5</v>
       </c>
-      <c r="AB7" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AC7" s="18">
+      <c r="AB7" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AC7" s="15">
         <v>-30</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="34">
+      <c r="AD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4161,49 +4332,51 @@
       <c r="Q8" s="10">
         <v>15</v>
       </c>
-      <c r="R8" s="35">
-        <v>10</v>
-      </c>
-      <c r="S8" s="36">
-        <v>15</v>
-      </c>
-      <c r="T8" s="36">
-        <v>10</v>
-      </c>
-      <c r="U8" s="36">
-        <v>15</v>
-      </c>
-      <c r="V8" s="36">
+      <c r="R8" s="32">
+        <v>10</v>
+      </c>
+      <c r="S8" s="33">
+        <v>15</v>
+      </c>
+      <c r="T8" s="33">
+        <v>10</v>
+      </c>
+      <c r="U8" s="33">
+        <v>15</v>
+      </c>
+      <c r="V8" s="33">
         <v>0</v>
       </c>
-      <c r="W8" s="36">
+      <c r="W8" s="33">
         <v>0</v>
       </c>
-      <c r="X8" s="37">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="38">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="38">
+      <c r="X8" s="34">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="35">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="35">
         <v>0</v>
       </c>
-      <c r="AA8" s="34">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="38">
+      <c r="AA8" s="31">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="35">
         <v>0</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="15">
         <v>-30</v>
       </c>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="34">
+      <c r="AD8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -4255,49 +4428,51 @@
       <c r="Q9" s="10">
         <v>15</v>
       </c>
-      <c r="R9" s="35">
-        <v>10</v>
-      </c>
-      <c r="S9" s="36">
-        <v>15</v>
-      </c>
-      <c r="T9" s="36">
-        <v>-15</v>
-      </c>
-      <c r="U9" s="36">
-        <v>15</v>
-      </c>
-      <c r="V9" s="36">
-        <v>-15</v>
-      </c>
-      <c r="W9" s="36">
-        <v>-10</v>
-      </c>
-      <c r="X9" s="37">
-        <v>-15</v>
-      </c>
-      <c r="Y9" s="38">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="38">
-        <v>15</v>
-      </c>
-      <c r="AA9" s="34">
+      <c r="R9" s="32">
+        <v>10</v>
+      </c>
+      <c r="S9" s="33">
+        <v>15</v>
+      </c>
+      <c r="T9" s="33">
+        <v>-15</v>
+      </c>
+      <c r="U9" s="33">
+        <v>15</v>
+      </c>
+      <c r="V9" s="33">
+        <v>-15</v>
+      </c>
+      <c r="W9" s="33">
+        <v>-10</v>
+      </c>
+      <c r="X9" s="34">
+        <v>-15</v>
+      </c>
+      <c r="Y9" s="35">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="35">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="31">
         <v>5</v>
       </c>
-      <c r="AB9" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AC9" s="18">
+      <c r="AB9" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AC9" s="15">
         <v>-30</v>
       </c>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="34">
+      <c r="AD9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -4349,49 +4524,51 @@
       <c r="Q10" s="10">
         <v>15</v>
       </c>
-      <c r="R10" s="35">
-        <v>10</v>
-      </c>
-      <c r="S10" s="36">
-        <v>15</v>
-      </c>
-      <c r="T10" s="36">
-        <v>-15</v>
-      </c>
-      <c r="U10" s="36">
-        <v>-10</v>
-      </c>
-      <c r="V10" s="36">
-        <v>-15</v>
-      </c>
-      <c r="W10" s="36">
-        <v>15</v>
-      </c>
-      <c r="X10" s="37">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="38">
-        <v>-10</v>
-      </c>
-      <c r="Z10" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AA10" s="34">
+      <c r="R10" s="32">
+        <v>10</v>
+      </c>
+      <c r="S10" s="33">
+        <v>15</v>
+      </c>
+      <c r="T10" s="33">
+        <v>-15</v>
+      </c>
+      <c r="U10" s="33">
+        <v>-10</v>
+      </c>
+      <c r="V10" s="33">
+        <v>-15</v>
+      </c>
+      <c r="W10" s="33">
+        <v>15</v>
+      </c>
+      <c r="X10" s="34">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="35">
+        <v>-10</v>
+      </c>
+      <c r="Z10" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AA10" s="31">
         <v>5</v>
       </c>
-      <c r="AB10" s="38">
-        <v>15</v>
-      </c>
-      <c r="AC10" s="18">
+      <c r="AB10" s="35">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="15">
         <v>-30</v>
       </c>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="34">
+      <c r="AD10" s="15">
+        <v>-15</v>
+      </c>
+      <c r="AE10" s="31">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -4443,49 +4620,51 @@
       <c r="Q11" s="10">
         <v>15</v>
       </c>
-      <c r="R11" s="35">
-        <v>-15</v>
-      </c>
-      <c r="S11" s="36">
-        <v>15</v>
-      </c>
-      <c r="T11" s="36">
+      <c r="R11" s="32">
+        <v>-15</v>
+      </c>
+      <c r="S11" s="33">
+        <v>15</v>
+      </c>
+      <c r="T11" s="33">
         <v>1</v>
       </c>
-      <c r="U11" s="36">
-        <v>-10</v>
-      </c>
-      <c r="V11" s="36">
+      <c r="U11" s="33">
+        <v>-10</v>
+      </c>
+      <c r="V11" s="33">
         <v>0</v>
       </c>
-      <c r="W11" s="36">
-        <v>15</v>
-      </c>
-      <c r="X11" s="37">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="38">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="38">
+      <c r="W11" s="33">
+        <v>15</v>
+      </c>
+      <c r="X11" s="34">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="35">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="35">
         <v>0</v>
       </c>
-      <c r="AA11" s="34">
+      <c r="AA11" s="31">
         <v>5</v>
       </c>
-      <c r="AB11" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AC11" s="18">
+      <c r="AB11" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AC11" s="15">
         <v>-30</v>
       </c>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="34">
+      <c r="AD11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="31">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -4537,49 +4716,51 @@
       <c r="Q12" s="10">
         <v>15</v>
       </c>
-      <c r="R12" s="35">
-        <v>-15</v>
-      </c>
-      <c r="S12" s="36">
-        <v>15</v>
-      </c>
-      <c r="T12" s="36">
-        <v>-15</v>
-      </c>
-      <c r="U12" s="36">
-        <v>15</v>
-      </c>
-      <c r="V12" s="36">
-        <v>-15</v>
-      </c>
-      <c r="W12" s="36">
-        <v>15</v>
-      </c>
-      <c r="X12" s="37">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="38">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="38">
+      <c r="R12" s="32">
+        <v>-15</v>
+      </c>
+      <c r="S12" s="33">
+        <v>15</v>
+      </c>
+      <c r="T12" s="33">
+        <v>-15</v>
+      </c>
+      <c r="U12" s="33">
+        <v>15</v>
+      </c>
+      <c r="V12" s="33">
+        <v>-15</v>
+      </c>
+      <c r="W12" s="33">
+        <v>15</v>
+      </c>
+      <c r="X12" s="34">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="35">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="35">
         <v>0</v>
       </c>
-      <c r="AA12" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AB12" s="38">
-        <v>-10</v>
-      </c>
-      <c r="AC12" s="18">
+      <c r="AA12" s="31">
+        <v>-15</v>
+      </c>
+      <c r="AB12" s="35">
+        <v>-10</v>
+      </c>
+      <c r="AC12" s="15">
         <v>-30</v>
       </c>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="34">
+      <c r="AD12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="31">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -4631,46 +4812,51 @@
       <c r="Q13" s="10">
         <v>15</v>
       </c>
-      <c r="R13" s="35">
-        <v>10</v>
-      </c>
-      <c r="S13" s="36">
-        <v>15</v>
-      </c>
-      <c r="T13" s="36">
-        <v>10</v>
-      </c>
-      <c r="U13" s="36">
-        <v>15</v>
-      </c>
-      <c r="V13" s="36">
-        <v>-15</v>
-      </c>
-      <c r="W13" s="36">
-        <v>15</v>
-      </c>
-      <c r="X13" s="37">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="38">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="38">
+      <c r="R13" s="32">
+        <v>10</v>
+      </c>
+      <c r="S13" s="33">
+        <v>15</v>
+      </c>
+      <c r="T13" s="33">
+        <v>10</v>
+      </c>
+      <c r="U13" s="33">
+        <v>15</v>
+      </c>
+      <c r="V13" s="33">
+        <v>-15</v>
+      </c>
+      <c r="W13" s="33">
+        <v>15</v>
+      </c>
+      <c r="X13" s="34">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="35">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="35">
         <v>0</v>
       </c>
-      <c r="AA13" s="34">
-        <v>-15</v>
-      </c>
-      <c r="AB13" s="38">
-        <v>15</v>
-      </c>
-      <c r="AC13" s="18">
+      <c r="AA13" s="31">
+        <v>-15</v>
+      </c>
+      <c r="AB13" s="35">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="15">
         <v>-30</v>
       </c>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="34">
+      <c r="AD13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="31">
         <f t="shared" si="0"/>
         <v>95</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4697,15 +4883,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
-    <col min="3" max="12" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="11" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.83203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -4741,10 +4928,12 @@
       <c r="J1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
@@ -4761,9 +4950,12 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="15">
+      <c r="K2" s="41">
         <f>SUM(C2:J2)</f>
         <v>0</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4791,11 +4983,17 @@
       <c r="H3" s="11">
         <v>13</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="15">
-        <f t="shared" ref="K3:K13" si="0">SUM(C3:J3)</f>
-        <v>65</v>
+      <c r="I3" s="11">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11">
+        <v>10</v>
+      </c>
+      <c r="K3" s="41">
+        <v>91</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4817,15 +5015,22 @@
       <c r="F4" s="10">
         <v>10</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="11">
+        <v>10</v>
+      </c>
       <c r="H4" s="11">
         <v>13</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11">
+        <v>13</v>
+      </c>
       <c r="J4" s="11"/>
-      <c r="K4" s="15">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="K4" s="41">
+        <f t="shared" ref="K4:K10" si="0">SUM(C4:J4)</f>
+        <v>76</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4843,9 +5048,12 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="15">
+      <c r="K5" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4869,11 +5077,17 @@
       <c r="H6" s="11">
         <v>13</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="15">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="I6" s="11">
+        <v>15</v>
+      </c>
+      <c r="J6" s="11">
+        <v>10</v>
+      </c>
+      <c r="K6" s="41">
+        <v>76</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4901,11 +5115,18 @@
       <c r="H7" s="11">
         <v>10</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="15">
+      <c r="I7" s="11">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11">
+        <v>10</v>
+      </c>
+      <c r="K7" s="41">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4937,9 +5158,11 @@
         <v>15</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="15">
-        <f t="shared" si="0"/>
-        <v>80</v>
+      <c r="K8" s="41">
+        <v>91</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4968,10 +5191,15 @@
         <v>13</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="15">
+      <c r="J9" s="11">
+        <v>13</v>
+      </c>
+      <c r="K9" s="41">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5000,10 +5228,15 @@
         <v>13</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="15">
+      <c r="J10" s="11">
+        <v>15</v>
+      </c>
+      <c r="K10" s="41">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5031,11 +5264,15 @@
       <c r="H11" s="11">
         <v>10</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11">
+        <v>15</v>
+      </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="15">
-        <f t="shared" si="0"/>
-        <v>56</v>
+      <c r="K11" s="41">
+        <v>76</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5067,9 +5304,11 @@
         <v>15</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="15">
-        <f t="shared" si="0"/>
-        <v>73</v>
+      <c r="K12" s="41">
+        <v>76</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5100,10 +5339,14 @@
       <c r="I13" s="11">
         <v>15</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="15">
-        <f t="shared" si="0"/>
-        <v>78</v>
+      <c r="J13" s="11">
+        <v>10</v>
+      </c>
+      <c r="K13" s="41">
+        <v>91</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
